--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752B1A80-5049-654D-997B-E24E50BCC3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A783311F-8797-4740-836F-228869162E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -54,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -968,6 +954,10 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,18 +965,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1523,7 +1513,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1579,8 +1569,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,14 +1593,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1640,7 +1630,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1742,7 +1732,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1770,7 +1760,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,13 +1813,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1865,7 +1855,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,16 +1885,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,7 +1915,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,10 +1937,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,10 +1949,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1969,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,13 +1981,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2035,7 +2025,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,19 +2069,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2116,7 +2106,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,10 +2118,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2162,13 +2152,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,7 +2167,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2181,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2204,14 +2194,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2407,7 +2397,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2469,7 +2459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2741,7 +2731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2771,7 +2761,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3583,182 +3573,182 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C5" s="192" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="268"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="C9" s="193" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="140" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>19118002388</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45382</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45565</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="241" t="s">
-        <v>240</v>
-      </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3805,9 +3795,9 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>941168</v>
@@ -3827,9 +3817,9 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>586323</v>
@@ -3849,9 +3839,9 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>115141+41985</f>
@@ -3874,9 +3864,9 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>52256</v>
@@ -3896,9 +3886,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>7947</v>
@@ -3918,9 +3908,9 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>268</v>
@@ -3940,9 +3930,9 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3956,9 +3946,9 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3972,9 +3962,9 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3988,9 +3978,9 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -4006,9 +3996,9 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -4025,9 +4015,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4043,9 +4033,9 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4061,9 +4051,9 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4079,9 +4069,9 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4098,9 +4088,9 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4117,9 +4107,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4135,9 +4125,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4153,9 +4143,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4172,9 +4162,9 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.125*7.2</f>
@@ -4194,17 +4184,17 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.151225343693963E-2</v>
+        <v>1.1492573270633008E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.151225343693963E-2</v>
+        <v>1.1492573270633008E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4243,23 +4233,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4267,9 +4257,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4277,9 +4267,9 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4288,9 +4278,9 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4298,9 +4288,9 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4308,9 +4298,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4319,9 +4309,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4329,9 +4319,9 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4340,9 +4330,9 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4350,24 +4340,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4376,9 +4366,9 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4387,9 +4377,9 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4398,9 +4388,9 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4409,9 +4399,9 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4420,9 +4410,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4431,9 +4421,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4441,33 +4431,33 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4475,12 +4465,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4489,9 +4479,9 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4500,9 +4490,9 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4510,9 +4500,9 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4521,9 +4511,9 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4531,103 +4521,103 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="59"/>
-    </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="59"/>
+    </row>
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="59"/>
-    </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B75" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
-        <v>67</v>
-      </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4635,32 +4625,32 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4676,9 +4666,9 @@
         <v>941168</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4697,9 +4687,9 @@
         <v>586323</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4718,9 +4708,9 @@
         <v>209382</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4736,9 +4726,9 @@
         <v>7947.0000000000009</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4757,9 +4747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4775,9 +4765,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4793,9 +4783,9 @@
         <v>357.33333333333331</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4885,19 +4875,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4906,7 +4896,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4921,9 +4911,9 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4935,15 +4925,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>83.65</v>
+        <v>83.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4952,7 +4942,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4961,9 +4951,9 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4972,19 +4962,19 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1599220.8997562001</v>
+        <v>1604956.3004726002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4999,7 +4989,7 @@
         <v>45382</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5008,9 +4998,9 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5022,53 +5012,53 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0720016956329346</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5078,32 +5068,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5113,52 +5103,52 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.62297379426414834</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5167,155 +5157,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>3.796700836974199E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14529.148448364096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14554.028521000922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
         <v>167.26323916048565</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.14573239492488765</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.151225343693963E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.1492573270633008E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3804340133221575E-2</v>
+        <v>3.3867559462681399E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.4978046783751436E-2</v>
+        <v>6.5099565752353941E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9769811921437144E-2</v>
+        <v>3.9844187603154585E-2</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6502649377175161E-2</v>
+        <v>5.6608318045525172E-2</v>
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5323,962 +5313,962 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6353,7 +6343,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6361,7 +6351,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6369,24 +6359,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6394,17 +6384,17 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6423,10 +6413,10 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6437,7 +6427,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6445,10 +6435,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6495,10 +6485,10 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6546,10 +6536,10 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6597,10 +6587,10 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6648,10 +6638,10 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6699,10 +6689,10 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6750,10 +6740,10 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6801,10 +6791,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6852,10 +6842,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6903,10 +6893,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6954,10 +6944,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7005,10 +6995,10 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7056,10 +7046,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7107,10 +7097,10 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7158,10 +7148,10 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7209,10 +7199,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7260,10 +7250,10 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7311,10 +7301,10 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7362,10 +7352,10 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7413,10 +7403,10 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7464,10 +7454,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7515,10 +7505,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7566,10 +7556,10 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7617,10 +7607,10 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7668,10 +7658,10 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7719,10 +7709,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7770,10 +7760,10 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7821,10 +7811,10 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7872,10 +7862,10 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7923,10 +7913,10 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7974,10 +7964,10 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8025,10 +8015,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8076,10 +8066,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8127,10 +8117,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8178,10 +8168,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8229,10 +8219,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8280,10 +8270,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8298,10 +8288,10 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8349,10 +8339,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8400,10 +8390,10 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8451,10 +8441,10 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8502,10 +8492,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8553,10 +8543,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8604,10 +8594,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8655,10 +8645,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8673,10 +8663,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8724,10 +8714,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8775,10 +8765,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8792,10 +8782,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8842,10 +8832,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8892,10 +8882,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8942,10 +8932,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -8992,1260 +8982,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10289,7 +10279,7 @@
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10297,14 +10287,14 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10314,12 +10304,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10333,7 +10323,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10341,9 +10331,9 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10357,14 +10347,14 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10372,9 +10362,9 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10388,7 +10378,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10397,9 +10387,9 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10411,7 +10401,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10420,16 +10410,16 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10446,34 +10436,34 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10490,7 +10480,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10499,9 +10489,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10518,7 +10508,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10527,9 +10517,9 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10546,7 +10536,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10555,9 +10545,9 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10574,7 +10564,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10583,9 +10573,9 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10602,7 +10592,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10610,9 +10600,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10632,9 +10622,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10654,9 +10644,9 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10675,9 +10665,9 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10700,9 +10690,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10727,9 +10717,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10748,9 +10738,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10767,25 +10757,25 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10805,9 +10795,9 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10827,16 +10817,16 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10856,7 +10846,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10867,9 +10857,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10889,7 +10879,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10900,9 +10890,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10919,7 +10909,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10930,21 +10920,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10960,7 +10950,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10968,9 +10958,9 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10987,7 +10977,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10995,9 +10985,9 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11014,7 +11004,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11022,9 +11012,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11044,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11052,9 +11042,9 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11071,7 +11061,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11079,9 +11069,9 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11105,9 +11095,9 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11132,9 +11122,9 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11159,9 +11149,9 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11180,9 +11170,9 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11201,9 +11191,9 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11222,9 +11212,9 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11243,9 +11233,9 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11262,14 +11252,14 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11278,9 +11268,9 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11297,9 +11287,9 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11316,9 +11306,9 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11335,7 +11325,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11346,9 +11336,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11365,7 +11355,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11376,9 +11366,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11395,7 +11385,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11403,9 +11393,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11422,7 +11412,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11430,22 +11420,22 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11457,12 +11447,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11481,7 +11471,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11490,9 +11480,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11501,9 +11491,9 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11516,9 +11506,9 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11529,12 +11519,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11547,7 +11537,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11556,13 +11546,13 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11570,9 +11560,9 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11591,9 +11581,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11612,9 +11602,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11633,9 +11623,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11648,9 +11638,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11669,7 +11659,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11679,13 +11669,13 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11693,9 +11683,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11714,9 +11704,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11729,9 +11719,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11750,10 +11740,10 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11761,39 +11751,39 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11812,9 +11802,9 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11842,9 +11832,9 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11863,9 +11853,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11893,9 +11883,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11923,9 +11913,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11954,9 +11944,9 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11983,12 +11973,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12016,9 +12006,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12046,9 +12036,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12076,9 +12066,9 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12097,9 +12087,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12128,9 +12118,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12149,30 +12139,30 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8827158284874882E-5</v>
+        <v>6.8709498442787664E-5</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8827158284874882E-5</v>
+        <v>6.8709498442787664E-5</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8827158284874882E-5</v>
+        <v>6.8709498442787664E-5</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12200,32 +12190,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.151225343693963E-2</v>
+        <v>1.1492573270633008E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.151225343693963E-2</v>
+        <v>1.1492573270633008E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.151225343693963E-2</v>
+        <v>1.1492573270633008E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12233,32 +12223,32 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12272,24 +12262,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.9991297053705765E-2</v>
+        <v>8.0140893115703341E-2</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.9991297053705765E-2</v>
+        <v>8.0140893115703341E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12297,26 +12287,26 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.162813346115206</v>
+        <v>14.187928043185698</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.162813346115206</v>
+        <v>14.187928043185698</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12327,51 +12317,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>760319.35928434622</v>
+        <v>761741.27374502935</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9769811921437144E-2</v>
+        <v>3.9844187603154585E-2</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9769811921437144E-2</v>
+        <v>3.9844187603154585E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6502649377175161E-2</v>
+        <v>5.6608318045525172E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12387,9 +12377,9 @@
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12408,164 +12398,164 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>760319.35928434622</v>
+        <v>761741.27374502935</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3804340133221575E-2</v>
+        <v>3.3867559462681399E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9769811921437144E-2</v>
+        <v>3.9844187603154585E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9769811921437144E-2</v>
+        <v>3.9844187603154585E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9769811921437144E-2</v>
+        <v>3.9844187603154585E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6502649377175161E-2</v>
+        <v>5.6608318045525172E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134617909.26770875</v>
+        <v>134856625.11666462</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9852081067515153</v>
+        <v>5.9958215833844015</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0414213020606065</v>
+        <v>7.0539077451581198</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0414213020606065</v>
+        <v>7.0539077451581198</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0414213020606065</v>
+        <v>7.0539077451581198</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.004044266873802</v>
+        <v>10.021784283288778</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67689114.313496545</v>
+        <v>67809183.195204839</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0095062234423686</v>
+        <v>3.0148445714235415</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5405955569910219</v>
+        <v>3.5468759663806373</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5405955569910219</v>
+        <v>3.5468759663806373</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5405955569910219</v>
+        <v>3.5468759663806373</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.030273458125488</v>
+        <v>5.0391963006671512</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A783311F-8797-4740-836F-228869162E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2660155F-F428-4191-BFC1-74DB3180FA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1492573270633008E-2</v>
+        <v>1.1462725822829294E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1492573270633008E-2</v>
+        <v>1.1462725822829294E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4871,8 +4871,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>83.95</v>
+        <v>84.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1604956.3004726002</v>
+        <v>1609735.8010696</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0720016956329346</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14554.028521000922</v>
+        <v>14591.925319138516</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1492573270633008E-2</v>
+        <v>1.1462725822829294E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5260,20 +5260,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3867559462681399E-2</v>
+        <v>3.3880165951139185E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5099565752353941E-2</v>
+        <v>6.5123797699895611E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9844187603154585E-2</v>
+        <v>3.9859018766046098E-2</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6608318045525172E-2</v>
+        <v>5.6629389304257052E-2</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10275,8 +10275,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12145,17 +12145,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8709498442787664E-5</v>
+        <v>6.8531052491641891E-5</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8709498442787664E-5</v>
+        <v>6.8531052491641891E-5</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8709498442787664E-5</v>
+        <v>6.8531052491641891E-5</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,17 +12196,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1492573270633008E-2</v>
+        <v>1.1462725822829294E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1492573270633008E-2</v>
+        <v>1.1462725822829294E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1492573270633008E-2</v>
+        <v>1.1462725822829294E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>8.0140893115703341E-2</v>
+        <v>8.0170723881784173E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>8.0140893115703341E-2</v>
+        <v>8.0170723881784173E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12291,14 +12291,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.187928043185698</v>
+        <v>14.191127897302955</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.187928043185698</v>
+        <v>14.191127897302955</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12341,21 +12341,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>761741.27374502935</v>
+        <v>762024.81595260603</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9844187603154585E-2</v>
+        <v>3.9859018766046098E-2</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9844187603154585E-2</v>
+        <v>3.9859018766046098E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6608318045525172E-2</v>
+        <v>5.6629389304257052E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,27 +12404,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>761741.27374502935</v>
+        <v>762024.81595260603</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3867559462681399E-2</v>
+        <v>3.3880165951139185E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9844187603154585E-2</v>
+        <v>3.9859018766046098E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9844187603154585E-2</v>
+        <v>3.9859018766046098E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9844187603154585E-2</v>
+        <v>3.9859018766046098E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6608318045525172E-2</v>
+        <v>5.6629389304257052E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12465,27 +12465,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134856625.11666462</v>
+        <v>134887039.81328598</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9958215833844015</v>
+        <v>5.997173842454333</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0539077451581198</v>
+        <v>7.055498638181569</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0539077451581198</v>
+        <v>7.055498638181569</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0539077451581198</v>
+        <v>7.055498638181569</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.021784283288778</v>
+        <v>10.024044532114647</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12526,27 +12526,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67809183.195204839</v>
+        <v>67824532.314619303</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0148445714235415</v>
+        <v>3.015527004202736</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5468759663806373</v>
+        <v>3.5476788284738077</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5468759663806373</v>
+        <v>3.5476788284738077</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5468759663806373</v>
+        <v>3.5476788284738077</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0391963006671512</v>
+        <v>5.0403369607094524</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2660155F-F428-4191-BFC1-74DB3180FA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EBCCF2-0F98-4263-88B0-4C62CB9D4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84.2</v>
+        <v>84.45</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1609735.8010696</v>
+        <v>1614515.3016666002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14591.925319138516</v>
+        <v>14633.885696679254</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5260,20 +5260,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3880165951139185E-2</v>
+        <v>3.3883292466411467E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5123797699895611E-2</v>
+        <v>6.51298074268961E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6629389304257052E-2</v>
+        <v>5.6634615153822704E-2</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12145,17 +12145,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8531052491641891E-5</v>
+        <v>6.8334550421349937E-5</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8531052491641891E-5</v>
+        <v>6.8334550421349937E-5</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8531052491641891E-5</v>
+        <v>6.8334550421349937E-5</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,17 +12196,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>8.0170723881784173E-2</v>
+        <v>8.0178122162919155E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>8.0170723881784173E-2</v>
+        <v>8.0178122162919155E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12291,14 +12291,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.191127897302955</v>
+        <v>14.190145645181715</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.191127897302955</v>
+        <v>14.190145645181715</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12341,21 +12341,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>762024.81595260603</v>
+        <v>762095.13680724334</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6629389304257052E-2</v>
+        <v>5.6634615153822704E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,27 +12404,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>762024.81595260603</v>
+        <v>762095.13680724334</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3880165951139185E-2</v>
+        <v>3.3883292466411467E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6629389304257052E-2</v>
+        <v>5.6634615153822704E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12465,27 +12465,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134887039.81328598</v>
+        <v>134877703.48132256</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.997173842454333</v>
+        <v>5.9967587424868869</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.055498638181569</v>
+        <v>7.0550102852786907</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.055498638181569</v>
+        <v>7.0550102852786907</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.055498638181569</v>
+        <v>7.0550102852786907</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.024044532114647</v>
+        <v>10.023350708545703</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12526,27 +12526,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67824532.314619303</v>
+        <v>67819899.30906491</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.015527004202736</v>
+        <v>3.0153210174766492</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5476788284738077</v>
+        <v>3.5474364911489991</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5476788284738077</v>
+        <v>3.5474364911489991</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5476788284738077</v>
+        <v>3.5474364911489991</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0403369607094524</v>
+        <v>5.0399926618497624</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EBCCF2-0F98-4263-88B0-4C62CB9D4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1E08712-71A5-4EC1-8BDC-9DD12F38F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14633.885696679254</v>
+        <v>14634.340607194603</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5260,20 +5260,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3883292466411467E-2</v>
+        <v>3.3882238839710685E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.51298074268961E-2</v>
+        <v>6.5127782166092718E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6634615153822704E-2</v>
+        <v>5.6632854057471933E-2</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12145,17 +12145,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8334550421349937E-5</v>
+        <v>6.833242623233569E-5</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8334550421349937E-5</v>
+        <v>6.833242623233569E-5</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8334550421349937E-5</v>
+        <v>6.833242623233569E-5</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,17 +12196,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>8.0178122162919155E-2</v>
+        <v>8.0175628963345555E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>8.0178122162919155E-2</v>
+        <v>8.0175628963345555E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12291,14 +12291,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.190145645181715</v>
+        <v>14.189679619492702</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.190145645181715</v>
+        <v>14.189679619492702</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12341,21 +12341,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>762095.13680724334</v>
+        <v>762071.43888044148</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6634615153822704E-2</v>
+        <v>5.6632854057471933E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,27 +12404,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>762095.13680724334</v>
+        <v>762071.43888044148</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3883292466411467E-2</v>
+        <v>3.3882238839710685E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6634615153822704E-2</v>
+        <v>5.6632854057471933E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12465,27 +12465,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134877703.48132256</v>
+        <v>134873273.89502594</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9967587424868869</v>
+        <v>5.9965617999258534</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0550102852786907</v>
+        <v>7.0547785881480625</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0550102852786907</v>
+        <v>7.0547785881480625</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0550102852786907</v>
+        <v>7.0547785881480625</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.023350708545703</v>
+        <v>10.023021526658711</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12526,27 +12526,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67819899.30906491</v>
+        <v>67817672.666953176</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0153210174766492</v>
+        <v>3.0152220193827821</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5474364911489991</v>
+        <v>3.5473200228032726</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5474364911489991</v>
+        <v>3.5473200228032726</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5474364911489991</v>
+        <v>3.5473200228032726</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0399926618497624</v>
+        <v>5.0398271903580918</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1E08712-71A5-4EC1-8BDC-9DD12F38F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED6D191-30A5-458E-9E0C-44C48FFECF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4627,7 +4627,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14634.340607194603</v>
+        <v>14634.79554599362</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5260,20 +5260,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3882238839710685E-2</v>
+        <v>3.388118521303228E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5127782166092718E-2</v>
+        <v>6.5125756905332358E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6632854057471933E-2</v>
+        <v>5.6631092961158577E-2</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12145,17 +12145,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.833242623233569E-5</v>
+        <v>6.8330302043321484E-5</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.833242623233569E-5</v>
+        <v>6.8330302043321484E-5</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.833242623233569E-5</v>
+        <v>6.8330302043321484E-5</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,17 +12196,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>8.0175628963345555E-2</v>
+        <v>8.0173135763824913E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>8.0175628963345555E-2</v>
+        <v>8.0173135763824913E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12291,14 +12291,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.189679619492702</v>
+        <v>14.189213595388237</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.189679619492702</v>
+        <v>14.189213595388237</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12341,21 +12341,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>762071.43888044148</v>
+        <v>762047.74095414276</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6632854057471933E-2</v>
+        <v>5.6631092961158577E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,27 +12404,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>762071.43888044148</v>
+        <v>762047.74095414276</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3882238839710685E-2</v>
+        <v>3.388118521303228E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6632854057471933E-2</v>
+        <v>5.6631092961158577E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12465,27 +12465,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134873273.89502594</v>
+        <v>134868844.32379043</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9965617999258534</v>
+        <v>5.9963648580344486</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0547785881480625</v>
+        <v>7.0545468918052334</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0547785881480625</v>
+        <v>7.0545468918052334</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0547785881480625</v>
+        <v>7.0545468918052334</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.023021526658711</v>
+        <v>10.022692345890979</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12526,27 +12526,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67817672.666953176</v>
+        <v>67815446.032372281</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0152220193827821</v>
+        <v>3.0151230216237406</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5473200228032726</v>
+        <v>3.5472035548514591</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5473200228032726</v>
+        <v>3.5472035548514591</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5473200228032726</v>
+        <v>3.5472035548514591</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0398271903580918</v>
+        <v>5.0396617194260687</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED6D191-30A5-458E-9E0C-44C48FFECF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB7F7EB-9A43-49C0-9FE2-ECFF4C0A7786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5015,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5064,7 +5064,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5111,7 +5111,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14634.79554599362</v>
+        <v>14635.25051307895</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5260,20 +5260,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.388118521303228E-2</v>
+        <v>3.5353180785783936E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5125756905332358E-2</v>
+        <v>6.8914099319797431E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6631092961158577E-2</v>
+        <v>5.9925303756345596E-2</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12145,17 +12145,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8330302043321484E-5</v>
+        <v>6.8328177854307251E-5</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8330302043321484E-5</v>
+        <v>6.8328177854307251E-5</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8330302043321484E-5</v>
+        <v>6.8328177854307251E-5</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,17 +12196,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12266,14 +12266,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>8.0173135763824913E-2</v>
+        <v>8.3656322675851061E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>8.0173135763824913E-2</v>
+        <v>8.3656322675851061E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12291,14 +12291,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.189213595388237</v>
+        <v>14.805649641253883</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.189213595388237</v>
+        <v>14.805649641253883</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12341,21 +12341,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>762047.74095414276</v>
+        <v>795155.52316001535</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6631092961158577E-2</v>
+        <v>5.9925303756345596E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12404,27 +12404,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>762047.74095414276</v>
+        <v>795155.52316001535</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.388118521303228E-2</v>
+        <v>3.5353180785783936E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6631092961158577E-2</v>
+        <v>5.9925303756345596E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12465,27 +12465,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134868844.32379043</v>
+        <v>140728084.97490361</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9963648580344486</v>
+        <v>6.2568708697175666</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0545468918052334</v>
+        <v>7.3610245526089022</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0545468918052334</v>
+        <v>7.3610245526089022</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0545468918052334</v>
+        <v>7.3610245526089022</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.022692345890979</v>
+        <v>10.605690325404231</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12526,27 +12526,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67815446.032372281</v>
+        <v>70761620.249031812</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0151230216237406</v>
+        <v>3.1461120252516754</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5472035548514591</v>
+        <v>3.7013082650019711</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5472035548514591</v>
+        <v>3.7013082650019711</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5472035548514591</v>
+        <v>3.7013082650019711</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0396617194260687</v>
+        <v>5.3328078145802884</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDB7F7EB-9A43-49C0-9FE2-ECFF4C0A7786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1C0470-0F83-4F2A-BADD-909687D7BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>19118002388</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45565</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,436 +3803,436 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>941168</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>868687</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>853062</v>
       </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>586323</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>549695</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>539450</v>
       </c>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>115141+41985</f>
         <v>157126</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>103496+42183</f>
         <v>145679</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <f>119799+31922</f>
         <v>151721</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>52256</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>56744</v>
       </c>
-      <c r="E28" s="151">
+      <c r="E28" s="150">
         <v>55465</v>
       </c>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>7947</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>5918</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>4909</v>
       </c>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>268</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>274</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>290</v>
       </c>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>22554271</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <f>431184</f>
         <v>431184</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>2258059</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>7382230</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>2478102</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <f>504914+87402</f>
         <v>592316</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <f>872836+171260</f>
         <v>1044096</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>26334346</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>1389487</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <f>211741+3338+99866+1800+540000+8670910+10440941</f>
         <v>19968596</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.125*7.2</f>
         <v>0.9</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>0.125*7.2</f>
         <v>0.9</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1428792353845193E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>1.1479471836771286E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1428792353845193E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>1.1479471836771286E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4237,10 +4241,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4339,7 +4343,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4351,7 +4355,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4371,7 +4375,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4439,7 +4443,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4451,7 +4455,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4464,7 +4468,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4512,14 +4516,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4603,7 +4607,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4611,19 +4615,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4637,14 +4642,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4656,12 +4661,12 @@
         <f>C25</f>
         <v>941168</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>941168</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>941168</v>
       </c>
@@ -4674,15 +4679,15 @@
         <f>C26</f>
         <v>586323</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>586323</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>586323</v>
       </c>
@@ -4695,15 +4700,15 @@
         <f>C27+C28</f>
         <v>209382</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>209382</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>209382</v>
       </c>
@@ -4716,12 +4721,12 @@
         <f>C29</f>
         <v>7947</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>7947.0000000000009</v>
       </c>
@@ -4734,15 +4739,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4755,12 +4760,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4773,12 +4778,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>357.33333333333331</v>
       </c>
@@ -4787,16 +4792,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.9</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.9</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.9</v>
       </c>
@@ -4915,17 +4920,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84.45</v>
+        <v>84</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4935,40 +4940,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>19118002388</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1614515.3016666002</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1605912.200592</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4976,11 +4981,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45808</v>
       </c>
@@ -4991,22 +4996,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5035,7 +5040,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5046,7 +5051,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5060,11 +5065,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5073,7 +5078,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5084,7 +5089,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5095,10 +5100,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5110,10 +5115,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5135,14 +5140,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.62297379426414834</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5150,7 +5155,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.22247037723339511</v>
       </c>
@@ -5161,7 +5166,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>3.796700836974199E-4</v>
       </c>
@@ -5173,14 +5178,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5189,30 +5194,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14635.25051307895</v>
+        <v>14570.638923012515</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>167.26323916048565</v>
       </c>
@@ -5221,16 +5226,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.14573239492488765</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1428792353845193E-2</v>
+        <v>1.1479471836771286E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5249,10 +5254,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5260,22 +5265,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5353180785783936E-2</v>
+        <v>3.3849085756036582E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.8914099319797431E-2</v>
+        <v>6.5064055951840005E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1591977395039927E-2</v>
-      </c>
-      <c r="G29" s="273">
+        <v>3.9822453830631273E-2</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9925303756345596E-2</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>5.6577439958121749E-2</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5287,17 +5292,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5307,7 +5312,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5315,17 +5320,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5335,24 +5340,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5362,7 +5367,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5381,10 +5386,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6366,16 +6371,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6389,11 +6394,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6426,7 +6431,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6490,47 +6495,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>941168</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>868687</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>853062</v>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6592,47 +6597,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>586323</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>549695</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>539450</v>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6643,47 +6648,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>354845</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>318992</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>313612</v>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6694,47 +6699,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>157126</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>145679</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>151721</v>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6745,47 +6750,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>52256</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>56744</v>
       </c>
-      <c r="E11" s="200">
+      <c r="E11" s="199">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>55465</v>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6796,47 +6801,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>365.33333333333331</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>386.66666666666669</v>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6844,50 +6849,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.13376931698835906</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>0.12430436865472068</v>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6895,50 +6900,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>116203.66666666667</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>106039.33333333333</v>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6946,50 +6951,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.24871848564732596</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>9.5854368504768764E-2</v>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7000,47 +7005,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7051,47 +7056,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7947</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5918</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>4909</v>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7102,47 +7107,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7153,47 +7158,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7204,47 +7209,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7255,47 +7260,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7306,47 +7311,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>110285.66666666667</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>101130.33333333333</v>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7357,47 +7362,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>9.5217552467114164E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>8.8912353381114154E-2</v>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7408,7 +7413,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>102869</v>
       </c>
@@ -7456,50 +7461,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.24366720365596012</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>9.0530042090899196E-2</v>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7616,43 +7621,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>22554271</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7667,43 +7672,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7718,43 +7723,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7769,43 +7774,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7820,43 +7825,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>2478102</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7871,43 +7876,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7922,43 +7927,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8024,43 +8029,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8075,43 +8080,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8126,43 +8131,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8224,47 +8229,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>7.1615357710300412E-3</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8293,47 +8298,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.63278833457850758</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.63236904234393276</v>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8344,47 +8349,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.23302179035717122</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.24287331987592931</v>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8395,47 +8400,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8446,47 +8451,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>6.8125803655401775E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>5.7545641465684789E-3</v>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8497,47 +8502,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>4.205580759621513E-4</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>4.5326912541722252E-4</v>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8548,47 +8553,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8599,47 +8604,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.12695673662281889</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>0.1185498045081522</v>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8668,47 +8673,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>0.49636290171258463</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8719,47 +8724,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>2.5993931070684839</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8787,47 +8792,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.27242491285597292</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8837,47 +8842,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>6.7394804405410541E-2</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8887,47 +8892,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.7940195782986134E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>5.3660644931193838E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>4.8541321265297921E-2</v>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8937,47 +8942,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10275,8 +10280,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10325,7 +10330,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10422,7 +10427,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45565</v>
       </c>
@@ -10469,7 +10474,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10497,7 +10502,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10525,7 +10530,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10553,7 +10558,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10566,7 +10571,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10581,7 +10586,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10608,7 +10613,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10630,7 +10635,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10652,7 +10657,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10673,7 +10678,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10698,7 +10703,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10725,7 +10730,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10746,7 +10751,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10911,7 +10916,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10940,7 +10945,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10966,7 +10971,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10993,7 +10998,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11020,7 +11025,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11036,7 +11041,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11050,7 +11055,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11077,7 +11082,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11103,7 +11108,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11130,7 +11135,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11157,7 +11162,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11178,7 +11183,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11199,7 +11204,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11220,7 +11225,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11241,7 +11246,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11387,7 +11392,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11496,11 +11501,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11511,11 +11516,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11527,11 +11532,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11627,8 +11632,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11708,8 +11713,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11745,19 +11750,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11767,18 +11772,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11789,17 +11794,17 @@
         <f>Data!C6</f>
         <v>941168</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>941168</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>941168</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11810,23 +11815,23 @@
         <f>Data!C8</f>
         <v>586323</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>586323</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>586323</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.62297379426414834</v>
       </c>
@@ -11836,21 +11841,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>354845</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>354845</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>354845</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11861,23 +11866,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>209382</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>209382</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>209382</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.22247037723339511</v>
       </c>
@@ -11891,54 +11896,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>3.796700836974199E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.15417615841875909</v>
       </c>
@@ -11952,27 +11957,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11984,23 +11989,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>7947</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>7947.0000000000009</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>7947.0000000000009</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>8.4437634938714454E-3</v>
       </c>
@@ -12014,23 +12019,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12040,27 +12045,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.14573239492488765</v>
       </c>
@@ -12070,49 +12075,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>102869</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>102869</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>102869</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.10929929619366574</v>
       </c>
@@ -12122,69 +12127,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>5.3807399911493308E-3</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>5.3807399911493308E-3</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>5.3807399911493308E-3</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8328177854307251E-5</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>6.8631170210430793E-5</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8328177854307251E-5</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>6.8631170210430793E-5</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8328177854307251E-5</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>6.8631170210430793E-5</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.9</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>167.26323916048565</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.9</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>167.26323916048565</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.9</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>167.26323916048565</v>
       </c>
@@ -12194,21 +12199,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1428792353845193E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>1.1479471836771286E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1428792353845193E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>1.1479471836771286E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1428792353845193E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>1.1479471836771286E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12230,22 +12235,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12255,9 +12260,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12265,15 +12270,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>8.3656322675851061E-2</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>8.0097178736127095E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>8.3656322675851061E-2</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>8.0097178736127095E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12281,24 +12286,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.805649641253883</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>14.1792761938278</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.805649641253883</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>14.1792761938278</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12319,14 +12327,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12341,21 +12349,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>795155.52316001535</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>761325.76743002841</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1591977395039927E-2</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>3.9822453830631273E-2</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.1591977395039927E-2</v>
+        <v>3.9822453830631273E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.9925303756345596E-2</v>
+        <v>5.6577439958121749E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,14 +12375,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12385,17 +12393,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12404,27 +12412,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>795155.52316001535</v>
+        <v>761325.76743002841</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5353180785783936E-2</v>
+        <v>3.3849085756036582E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1591977395039927E-2</v>
+        <v>3.9822453830631273E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.1591977395039927E-2</v>
+        <v>3.9822453830631273E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.1591977395039927E-2</v>
+        <v>3.9822453830631273E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.9925303756345596E-2</v>
+        <v>5.6577439958121749E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12443,14 +12451,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12465,27 +12473,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>140728084.97490361</v>
+        <v>134774389.06345993</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2568708697175666</v>
+        <v>5.9921653098990575</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.3610245526089022</v>
+        <v>7.0496062469400673</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.3610245526089022</v>
+        <v>7.0496062469400673</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.3610245526089022</v>
+        <v>7.0496062469400673</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.605690325404231</v>
+        <v>10.015672963323491</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12504,14 +12512,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12526,27 +12534,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70761620.249031812</v>
+        <v>67767857.41544497</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1461120252516754</v>
+        <v>3.0130071978275472</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7013082650019711</v>
+        <v>3.5447143503853491</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7013082650019711</v>
+        <v>3.5447143503853491</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7013082650019711</v>
+        <v>3.5447143503853491</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.3328078145802884</v>
+        <v>5.0361252016408065</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1C0470-0F83-4F2A-BADD-909687D7BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{594059AA-87DD-4410-8C6E-ACCE21C6A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0009</t>
@@ -3574,7 +3577,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3627,7 +3630,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3636,7 +3639,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3655,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,7 +3687,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4194,11 +4197,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4618,7 +4621,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4930,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84</v>
+        <v>82.35</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4971,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1605912.200592</v>
+        <v>1574367.4966517999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5009,7 +5014,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5020,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5066,10 +5071,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5116,7 +5121,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5203,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14570.638923012515</v>
+        <v>14314.669922826024</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5265,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3849085756036582E-2</v>
+        <v>3.3777786249816172E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.5064055951840005E-2</v>
+        <v>5.9195147582698851E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.6577439958121749E-2</v>
+        <v>5.1474041376259876E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12150,17 +12155,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8631170210430793E-5</v>
+        <v>6.9858404377554697E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8631170210430793E-5</v>
+        <v>6.9858404377554697E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8631170210430793E-5</v>
+        <v>6.9858404377554697E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12201,17 +12206,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12260,7 +12265,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12271,14 +12276,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0097178736127095E-2</v>
+        <v>7.9928462531066363E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0097178736127095E-2</v>
+        <v>7.9928462531066363E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12292,21 +12297,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.1792761938278</v>
+        <v>14.163685488741274</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.1792761938278</v>
+        <v>14.163685488741274</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12349,21 +12354,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>761325.76743002841</v>
+        <v>759722.11551216373</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6577439958121749E-2</v>
+        <v>5.1474041376259876E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12412,27 +12417,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>761325.76743002841</v>
+        <v>759722.11551216373</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3849085756036582E-2</v>
+        <v>3.3777786249816172E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.6577439958121749E-2</v>
+        <v>5.1474041376259876E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12473,27 +12478,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134774389.06345993</v>
+        <v>134626199.00605631</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9921653098990575</v>
+        <v>5.9855766744215275</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0496062469400673</v>
+        <v>7.0418549110841502</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0496062469400673</v>
+        <v>7.0418549110841502</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0496062469400673</v>
+        <v>7.0418549110841502</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.015672963323491</v>
+        <v>9.1214332141623533</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12534,27 +12539,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67767857.41544497</v>
+        <v>67692960.560784236</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0130071978275472</v>
+        <v>3.0096772303356718</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5447143503853491</v>
+        <v>3.5407967415713788</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5447143503853491</v>
+        <v>3.5407967415713788</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5447143503853491</v>
+        <v>3.5407967415713788</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0361252016408065</v>
+        <v>4.5864536277693064</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{594059AA-87DD-4410-8C6E-ACCE21C6A626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F935D744-EB88-408A-86DF-513A21E216EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,11 +4197,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1684742998772849E-2</v>
+        <v>1.1644005991541006E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1684742998772849E-2</v>
+        <v>1.1644005991541006E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>82.35</v>
+        <v>82.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1574367.4966517999</v>
+        <v>1582014.6976069999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14314.669922826024</v>
+        <v>14364.75035155401</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1684742998772849E-2</v>
+        <v>1.1644005991541006E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,20 +5270,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3777786249816172E-2</v>
+        <v>3.3823481548864616E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.9195147582698851E-2</v>
+        <v>5.9275228022281322E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9738572058607265E-2</v>
+        <v>3.9792331233958374E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1474041376259876E-2</v>
+        <v>5.1543676541114199E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12155,17 +12155,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9858404377554697E-5</v>
+        <v>6.9614854106519005E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9858404377554697E-5</v>
+        <v>6.9614854106519005E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9858404377554697E-5</v>
+        <v>6.9614854106519005E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12206,17 +12206,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1684742998772849E-2</v>
+        <v>1.1644005991541006E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1684742998772849E-2</v>
+        <v>1.1644005991541006E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1684742998772849E-2</v>
+        <v>1.1644005991541006E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12276,14 +12276,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9928462531066363E-2</v>
+        <v>8.0036591434802892E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9928462531066363E-2</v>
+        <v>8.0036591434802892E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.163685488741274</v>
+        <v>14.1800084483934</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.163685488741274</v>
+        <v>14.1800084483934</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12354,21 +12354,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>759722.11551216373</v>
+        <v>760749.88355490309</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9738572058607265E-2</v>
+        <v>3.9792331233958374E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9738572058607265E-2</v>
+        <v>3.9792331233958374E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1474041376259876E-2</v>
+        <v>5.1543676541114199E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12417,27 +12417,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>759722.11551216373</v>
+        <v>760749.88355490309</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3777786249816172E-2</v>
+        <v>3.3823481548864616E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9738572058607265E-2</v>
+        <v>3.9792331233958374E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9738572058607265E-2</v>
+        <v>3.9792331233958374E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9738572058607265E-2</v>
+        <v>3.9792331233958374E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1474041376259876E-2</v>
+        <v>5.1543676541114199E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12478,27 +12478,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134626199.00605631</v>
+        <v>134781349.16215387</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9855766744215275</v>
+        <v>5.9924747608432396</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0418549110841502</v>
+        <v>7.0499703068743997</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0418549110841502</v>
+        <v>7.0499703068743997</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0418549110841502</v>
+        <v>7.0499703068743997</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1214332141623533</v>
+        <v>9.1319452229500868</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12539,27 +12539,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67692960.560784236</v>
+        <v>67771049.522854388</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0096772303356718</v>
+        <v>3.0131491211960522</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5407967415713788</v>
+        <v>3.5448813190541792</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5407967415713788</v>
+        <v>3.5448813190541792</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5407967415713788</v>
+        <v>3.5448813190541792</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.5864536277693064</v>
+        <v>4.5917444497456001</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F935D744-EB88-408A-86DF-513A21E216EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D3C65-F1AB-4CDB-952F-C71BE2C51868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>9988.HK</t>
   </si>
   <si>
@@ -954,9 +965,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3577,7 +3585,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3630,7 +3638,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3647,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3695,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4197,11 +4205,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1644005991541006E-2</v>
+        <v>1.1099578185402669E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1644005991541006E-2</v>
+        <v>1.1099578185402669E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4318,7 +4326,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4430,7 +4438,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4935,10 +4943,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>82.75</v>
+        <v>86.85</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4976,7 +4984,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1582014.6976069999</v>
+        <v>1660398.5073977998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5025,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5071,10 +5079,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5121,7 +5129,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5208,7 +5216,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14364.75035155401</v>
+        <v>15069.332939197429</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5240,7 +5248,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1644005991541006E-2</v>
+        <v>1.1099578185402669E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5270,20 +5278,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3823481548864616E-2</v>
+        <v>4.0271169118393561E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.9275228022281322E-2</v>
+        <v>7.4411232533828614E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9792331233958374E-2</v>
+        <v>4.7377846021639483E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1543676541114199E-2</v>
+        <v>6.4705419594633579E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12155,17 +12163,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9614854106519005E-5</v>
+        <v>6.6359938030094293E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9614854106519005E-5</v>
+        <v>6.6359938030094293E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9614854106519005E-5</v>
+        <v>6.6359938030094293E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12206,17 +12214,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1644005991541006E-2</v>
+        <v>1.1099578185402669E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1644005991541006E-2</v>
+        <v>1.1099578185402669E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1644005991541006E-2</v>
+        <v>1.1099578185402669E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12265,7 +12273,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12276,14 +12284,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0036591434802892E-2</v>
+        <v>9.5293771123892826E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.0036591434802892E-2</v>
+        <v>9.5293771123892826E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,14 +12312,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.1800084483934</v>
+        <v>16.838002469669291</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.1800084483934</v>
+        <v>16.838002469669291</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12354,21 +12362,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>760749.88355490309</v>
+        <v>905769.77338000003</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9792331233958374E-2</v>
+        <v>4.7377846021639483E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9792331233958374E-2</v>
+        <v>4.7377846021639483E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1543676541114199E-2</v>
+        <v>6.4705419594633579E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12417,27 +12425,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>760749.88355490309</v>
+        <v>905769.77338000003</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3823481548864616E-2</v>
+        <v>4.0271169118393561E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.9792331233958374E-2</v>
+        <v>4.7377846021639483E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.9792331233958374E-2</v>
+        <v>4.7377846021639483E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.9792331233958374E-2</v>
+        <v>4.7377846021639483E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.1543676541114199E-2</v>
+        <v>6.4705419594633579E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12478,27 +12486,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>134781349.16215387</v>
+        <v>160045651.47595769</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.9924747608432396</v>
+        <v>7.1157436322925118</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.0499703068743997</v>
+        <v>8.3714630968147201</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.0499703068743997</v>
+        <v>8.3714630968147201</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.0499703068743997</v>
+        <v>8.3714630968147201</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1319452229500868</v>
+        <v>11.433171361420255</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12539,27 +12547,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>67771049.522854388</v>
+        <v>80475710.624668851</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0131491211960522</v>
+        <v>3.5780074007054528</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.5448813190541792</v>
+        <v>4.2094204714181798</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.5448813190541792</v>
+        <v>4.2094204714181798</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.5448813190541792</v>
+        <v>4.2094204714181798</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.5917444497456001</v>
+        <v>5.748938390507444</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D3C65-F1AB-4CDB-952F-C71BE2C51868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9651C18A-653C-4685-BDD9-17CE15254729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3638,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4205,11 +4209,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1099578185402669E-2</v>
+        <v>1.114905501405398E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1099578185402669E-2</v>
+        <v>1.114905501405398E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4943,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>86.85</v>
+        <v>86.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4984,7 +4988,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1660398.5073977998</v>
+        <v>1651795.4063232001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5033,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5054,7 +5058,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5065,7 +5069,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5092,7 +5096,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5216,7 +5220,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15069.332939197429</v>
+        <v>15002.458858588589</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5248,7 +5252,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1099578185402669E-2</v>
+        <v>1.114905501405398E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5278,20 +5282,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0271169118393561E-2</v>
+        <v>4.0241150019709369E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.4411232533828614E-2</v>
+        <v>7.435576461021115E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7377846021639483E-2</v>
+        <v>4.7342529434952201E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.4705419594633579E-2</v>
+        <v>6.4657186617574913E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5326,8 +5330,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6353,12 +6357,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8784,118 +8788,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="e">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.27242491285597292</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>6.7394804405410541E-2</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8903,107 +8908,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.7940195782986134E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>5.3660644931193838E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v>6.7394804405410541E-2</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>4.8541321265297921E-2</v>
-      </c>
-      <c r="F55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.7940195782986134E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>5.3660644931193838E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>4.8541321265297921E-2</v>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9571,7 +9623,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10254,6 +10308,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12163,17 +12218,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6359938030094293E-5</v>
+        <v>6.6655740197382464E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6359938030094293E-5</v>
+        <v>6.6655740197382464E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6359938030094293E-5</v>
+        <v>6.6655740197382464E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12214,17 +12269,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1099578185402669E-2</v>
+        <v>1.114905501405398E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1099578185402669E-2</v>
+        <v>1.114905501405398E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1099578185402669E-2</v>
+        <v>1.114905501405398E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12284,14 +12339,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5293771123892826E-2</v>
+        <v>9.5222736853421391E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5293771123892826E-2</v>
+        <v>9.5222736853421391E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12312,14 +12367,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.838002469669291</v>
+        <v>16.829543187480006</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.838002469669291</v>
+        <v>16.829543187480006</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12362,21 +12417,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>905769.77338000003</v>
+        <v>905094.59079137642</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7377846021639483E-2</v>
+        <v>4.7342529434952201E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7377846021639483E-2</v>
+        <v>4.7342529434952201E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.4705419594633579E-2</v>
+        <v>6.4657186617574913E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12425,27 +12480,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>905769.77338000003</v>
+        <v>905094.59079137642</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0271169118393561E-2</v>
+        <v>4.0241150019709369E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7377846021639483E-2</v>
+        <v>4.7342529434952201E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7377846021639483E-2</v>
+        <v>4.7342529434952201E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7377846021639483E-2</v>
+        <v>4.7342529434952201E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.4705419594633579E-2</v>
+        <v>6.4657186617574913E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12486,27 +12541,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>160045651.47595769</v>
+        <v>159965245.77869982</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.1157436322925118</v>
+        <v>7.112168737735951</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.3714630968147201</v>
+        <v>8.3672573385128839</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.3714630968147201</v>
+        <v>8.3672573385128839</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.3714630968147201</v>
+        <v>8.3672573385128839</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.433171361420255</v>
+        <v>11.427427424570327</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12547,27 +12602,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>80475710.624668851</v>
+        <v>80435170.18474561</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.5780074007054528</v>
+        <v>3.5762049438778303</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2094204714181798</v>
+        <v>4.2072999339739177</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2094204714181798</v>
+        <v>4.2072999339739177</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2094204714181798</v>
+        <v>4.2072999339739177</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.748938390507444</v>
+        <v>5.7460423055939511</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9651C18A-653C-4685-BDD9-17CE15254729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25D5382-15F8-4690-A8FF-DB3971B3B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.114905501405398E-2</v>
+        <v>1.1170746693754969E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.114905501405398E-2</v>
+        <v>1.1170746693754969E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>86.4</v>
+        <v>86.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1651795.4063232001</v>
+        <v>1647971.8058456001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15002.458858588589</v>
+        <v>14973.326649148219</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.114905501405398E-2</v>
+        <v>1.1170746693754969E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5282,20 +5282,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0241150019709369E-2</v>
+        <v>4.0226137520637632E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.435576461021115E-2</v>
+        <v>7.4328025198026296E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7342529434952201E-2</v>
+        <v>4.7324867671338394E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.4657186617574913E-2</v>
+        <v>6.4633065389588087E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10348,8 +10348,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12218,17 +12218,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6655740197382464E-5</v>
+        <v>6.6785426073429487E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6655740197382464E-5</v>
+        <v>6.6785426073429487E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6655740197382464E-5</v>
+        <v>6.6785426073429487E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12269,17 +12269,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.114905501405398E-2</v>
+        <v>1.1170746693754969E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.114905501405398E-2</v>
+        <v>1.1170746693754969E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.114905501405398E-2</v>
+        <v>1.1170746693754969E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5222736853421391E-2</v>
+        <v>9.5187212738232843E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5222736853421391E-2</v>
+        <v>9.5187212738232843E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12367,14 +12367,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.829543187480006</v>
+        <v>16.825058375467947</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.829543187480006</v>
+        <v>16.825058375467947</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12417,21 +12417,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>905094.59079137642</v>
+        <v>904756.93315243139</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7342529434952201E-2</v>
+        <v>4.7324867671338394E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7342529434952201E-2</v>
+        <v>4.7324867671338394E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.4657186617574913E-2</v>
+        <v>6.4633065389588087E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12440,7 +12440,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12479,28 +12479,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>905094.59079137642</v>
+        <f>C97+C98+$C$99</f>
+        <v>904756.93315243139</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0241150019709369E-2</v>
+        <v>4.0226137520637632E-2</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7342529434952201E-2</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>4.7324867671338394E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7342529434952201E-2</v>
+        <v>4.7324867671338394E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7342529434952201E-2</v>
+        <v>4.7324867671338394E-2</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>6.4657186617574913E-2</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>6.4633065389588087E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12541,27 +12541,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>159965245.77869982</v>
+        <v>159922617.5238632</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.112168737735951</v>
+        <v>7.1102734551705566</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.3672573385128839</v>
+        <v>8.3650275943183026</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.3672573385128839</v>
+        <v>8.3650275943183026</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.3672573385128839</v>
+        <v>8.3650275943183026</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.427427424570327</v>
+        <v>11.424382192551269</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12602,27 +12602,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>80435170.18474561</v>
+        <v>80413687.228507832</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.5762049438778303</v>
+        <v>3.5752497963455969</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2072999339739177</v>
+        <v>4.2061762309948207</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2072999339739177</v>
+        <v>4.2061762309948207</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2072999339739177</v>
+        <v>4.2061762309948207</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.7460423055939511</v>
+        <v>5.7445076289704282</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25D5382-15F8-4690-A8FF-DB3971B3B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0943623E-0111-4750-8E7E-D3BAA1C98116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1170746693754969E-2</v>
+        <v>1.1103569052748447E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1170746693754969E-2</v>
+        <v>1.1103569052748447E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>86.2</v>
+        <v>86.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1647971.8058456001</v>
+        <v>1658486.707159</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14973.326649148219</v>
+        <v>15063.916688939156</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1170746693754969E-2</v>
+        <v>1.1103569052748447E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5282,20 +5282,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0226137520637632E-2</v>
+        <v>4.0239268150280567E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.4328025198026296E-2</v>
+        <v>7.4352287377572254E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7324867671338394E-2</v>
+        <v>4.7340315470918319E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.4633065389588087E-2</v>
+        <v>6.4654162937019352E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12218,17 +12218,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6785426073429487E-5</v>
+        <v>6.6383797829568515E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6785426073429487E-5</v>
+        <v>6.6383797829568515E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6785426073429487E-5</v>
+        <v>6.6383797829568515E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12269,17 +12269,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1170746693754969E-2</v>
+        <v>1.1103569052748447E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1170746693754969E-2</v>
+        <v>1.1103569052748447E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1170746693754969E-2</v>
+        <v>1.1103569052748447E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5187212738232843E-2</v>
+        <v>9.5218283780948973E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5187212738232843E-2</v>
+        <v>9.5218283780948973E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12367,14 +12367,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.825058375467947</v>
+        <v>16.824994213554131</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.825058375467947</v>
+        <v>16.824994213554131</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12417,21 +12417,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>904756.93315243139</v>
+        <v>905052.26422168978</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7324867671338394E-2</v>
+        <v>4.7340315470918319E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7324867671338394E-2</v>
+        <v>4.7340315470918319E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.4633065389588087E-2</v>
+        <v>6.4654162937019352E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12480,27 +12480,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>904756.93315243139</v>
+        <v>905052.26422168978</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0226137520637632E-2</v>
+        <v>4.0239268150280567E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.7324867671338394E-2</v>
+        <v>4.7340315470918319E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7324867671338394E-2</v>
+        <v>4.7340315470918319E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7324867671338394E-2</v>
+        <v>4.7340315470918319E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.4633065389588087E-2</v>
+        <v>6.4654162937019352E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12541,27 +12541,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>159922617.5238632</v>
+        <v>159922007.66320336</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.1102734551705566</v>
+        <v>7.1102463403313418</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.3650275943183026</v>
+        <v>8.3649956945074617</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.3650275943183026</v>
+        <v>8.3649956945074617</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.3650275943183026</v>
+        <v>8.3649956945074617</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.424382192551269</v>
+        <v>11.424338625972819</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12602,27 +12602,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>80413687.228507832</v>
+        <v>80413529.963712543</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.5752497963455969</v>
+        <v>3.5752428042408111</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2061762309948207</v>
+        <v>4.2061680049891903</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2061762309948207</v>
+        <v>4.2061680049891903</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2061762309948207</v>
+        <v>4.2061680049891903</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.7445076289704282</v>
+        <v>5.7444963944549192</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0943623E-0111-4750-8E7E-D3BAA1C98116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D29453C-0313-4AE0-8C3E-208090CA1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1103569052748447E-2</v>
+        <v>1.1076994090329785E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1103569052748447E-2</v>
+        <v>1.1076994090329785E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>86.75</v>
+        <v>86.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1658486.707159</v>
+        <v>1662310.3076366</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5083,10 +5083,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5133,7 +5133,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15063.916688939156</v>
+        <v>15100.056729876427</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1103569052748447E-2</v>
+        <v>1.1076994090329785E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5282,20 +5282,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.0239268150280567E-2</v>
+        <v>3.6743341530627437E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.4352287377572254E-2</v>
+        <v>6.6114667584916353E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.7340315470918319E-2</v>
+        <v>4.3227460624267577E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.4654162937019352E-2</v>
+        <v>5.7491015291231615E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12218,17 +12218,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6383797829568515E-5</v>
+        <v>6.6224916759513634E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6383797829568515E-5</v>
+        <v>6.6224916759513634E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6383797829568515E-5</v>
+        <v>6.6224916759513634E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12269,17 +12269,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1103569052748447E-2</v>
+        <v>1.1076994090329785E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1103569052748447E-2</v>
+        <v>1.1076994090329785E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1103569052748447E-2</v>
+        <v>1.1076994090329785E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5218283780948973E-2</v>
+        <v>8.6945863623993799E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>9.5218283780948973E-2</v>
+        <v>8.6945863623993799E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12367,14 +12367,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.824994213554131</v>
+        <v>15.361257556015865</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>16.824994213554131</v>
+        <v>15.361257556015865</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12417,21 +12417,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>905052.26422168978</v>
+        <v>826422.69544192345</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.7340315470918319E-2</v>
+        <v>4.3227460624267577E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.7340315470918319E-2</v>
+        <v>4.3227460624267577E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.4654162937019352E-2</v>
+        <v>5.7491015291231615E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12480,27 +12480,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>905052.26422168978</v>
+        <v>826422.69544192345</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.0239268150280567E-2</v>
+        <v>3.6743341530627437E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.7340315470918319E-2</v>
+        <v>4.3227460624267577E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.7340315470918319E-2</v>
+        <v>4.3227460624267577E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.7340315470918319E-2</v>
+        <v>4.3227460624267577E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.4654162937019352E-2</v>
+        <v>5.7491015291231615E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12541,27 +12541,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>159922007.66320336</v>
+        <v>146009152.65757313</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.1102463403313418</v>
+        <v>6.4916708995097316</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.3649956945074617</v>
+        <v>7.6372598817761546</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.3649956945074617</v>
+        <v>7.6372598817761546</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.3649956945074617</v>
+        <v>7.6372598817761546</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.424338625972819</v>
+        <v>10.15728933195326</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12602,27 +12602,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>80413529.963712543</v>
+        <v>73417787.676507518</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.5752428042408111</v>
+        <v>3.2642071205201795</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.2061680049891903</v>
+        <v>3.840243671200211</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2061680049891903</v>
+        <v>3.840243671200211</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2061680049891903</v>
+        <v>3.840243671200211</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.7444963944549192</v>
+        <v>5.107390173622246</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D29453C-0313-4AE0-8C3E-208090CA1EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE12551F-A7B4-4586-8F56-1D4912467BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4209,11 +4220,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1076994090329785E-2</v>
+        <v>1.1435219310821696E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1076994090329785E-2</v>
+        <v>1.1435219310821696E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4947,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>86.95</v>
+        <v>84.15</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4988,7 +4999,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1662310.3076366</v>
+        <v>1608779.9009502002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5037,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5231,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15100.056729876427</v>
+        <v>14627.025036782325</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5263,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1076994090329785E-2</v>
+        <v>1.1435219310821696E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5282,20 +5293,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6743341530627437E-2</v>
+        <v>3.6710509156914296E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.6114667584916353E-2</v>
+        <v>6.605559017432594E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3227460624267577E-2</v>
+        <v>4.3188834302252115E-2</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7491015291231615E-2</v>
+        <v>5.7439643629848651E-2</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12218,17 +12229,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6224916759513634E-5</v>
+        <v>6.8366602059223753E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6224916759513634E-5</v>
+        <v>6.8366602059223753E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6224916759513634E-5</v>
+        <v>6.8366602059223753E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12269,17 +12280,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1076994090329785E-2</v>
+        <v>1.1435219310821696E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1076994090329785E-2</v>
+        <v>1.1435219310821696E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1076994090329785E-2</v>
+        <v>1.1435219310821696E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12339,14 +12350,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6945863623993799E-2</v>
+        <v>8.6868172293581306E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6945863623993799E-2</v>
+        <v>8.6868172293581306E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12367,14 +12378,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.361257556015865</v>
+        <v>15.374574199049682</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.361257556015865</v>
+        <v>15.374574199049682</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12417,21 +12428,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>826422.69544192345</v>
+        <v>825684.2373253922</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3227460624267577E-2</v>
+        <v>4.3188834302252115E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3227460624267577E-2</v>
+        <v>4.3188834302252115E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7491015291231615E-2</v>
+        <v>5.7439643629848651E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12480,27 +12491,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>826422.69544192345</v>
+        <v>825684.2373253922</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6743341530627437E-2</v>
+        <v>3.6710509156914296E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3227460624267577E-2</v>
+        <v>4.3188834302252115E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3227460624267577E-2</v>
+        <v>4.3188834302252115E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3227460624267577E-2</v>
+        <v>4.3188834302252115E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7491015291231615E-2</v>
+        <v>5.7439643629848651E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12541,27 +12552,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146009152.65757313</v>
+        <v>146135727.6960113</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4916708995097316</v>
+        <v>6.4972985158521146</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6372598817761546</v>
+        <v>7.6438806068848413</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.6372598817761546</v>
+        <v>7.6438806068848413</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6372598817761546</v>
+        <v>7.6438806068848413</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.15728933195326</v>
+        <v>10.166094665483511</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12602,27 +12613,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73417787.676507518</v>
+        <v>73480705.966668338</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2642071205201795</v>
+        <v>3.2670045125045144</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.840243671200211</v>
+        <v>3.8435347205935466</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.840243671200211</v>
+        <v>3.8435347205935466</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.840243671200211</v>
+        <v>3.8435347205935466</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.107390173622246</v>
+        <v>5.1117671545566798</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE12551F-A7B4-4586-8F56-1D4912467BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A43E1B-F144-46B3-B34B-7AD2FD354BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>19118002388</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45565</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3849,7 +3874,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>586323</v>
@@ -3871,7 +3896,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>115141+41985</f>
@@ -3896,7 +3921,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>52256</v>
@@ -3918,7 +3943,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>7947</v>
@@ -3940,7 +3965,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>268</v>
@@ -3962,7 +3987,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3978,7 +4003,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3994,7 +4019,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4028,7 +4053,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4047,7 +4072,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4083,7 +4108,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4139,7 +4164,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4157,7 +4182,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4175,7 +4200,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4194,7 +4219,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.125*7.2</f>
@@ -4216,15 +4241,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1435219310821696E-2</v>
+        <v>1.1449538548031003E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1435219310821696E-2</v>
+        <v>1.1449538548031003E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4265,21 +4290,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4289,7 +4314,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4299,7 +4324,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4310,7 +4335,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4320,7 +4345,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4330,7 +4355,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4341,7 +4366,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4351,7 +4376,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4362,7 +4387,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4370,24 +4395,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4398,7 +4423,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4409,7 +4434,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4420,7 +4445,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4431,7 +4456,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4442,7 +4467,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4453,7 +4478,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4463,31 +4488,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4495,12 +4520,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4511,7 +4536,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4522,7 +4547,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4532,7 +4557,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4543,7 +4568,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4553,25 +4578,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4583,55 +4608,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4639,10 +4664,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4650,18 +4675,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4670,20 +4695,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4701,7 +4726,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4722,7 +4747,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4743,7 +4768,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4761,7 +4786,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4782,7 +4807,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4800,7 +4825,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4818,7 +4843,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4946,62 +4971,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84.15</v>
+        <v>84.05</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>19118002388</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1608779.9009502002</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1606868.1007113999</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5024,16 +5049,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5048,7 +5073,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5058,40 +5083,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5104,29 +5129,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5136,12 +5161,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5151,29 +5176,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.62297379426414834</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5181,7 +5206,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5192,26 +5217,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>3.796700836974199E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5220,30 +5245,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14627.025036782325</v>
+        <v>14608.731911667324</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5252,18 +5277,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.14573239492488765</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1435219310821696E-2</v>
+        <v>1.1449538548031003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5273,62 +5298,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6710509156914296E-2</v>
+        <v>3.6712814235894939E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.605559017432594E-2</v>
+        <v>6.6059737851815625E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3188834302252115E-2</v>
-      </c>
-      <c r="G29" s="274">
+        <v>4.3191546159876401E-2</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7439643629848651E-2</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>5.7443250305926633E-2</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5338,25 +5363,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5366,7 +5391,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5376,14 +5401,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5393,7 +5418,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5408,14 +5433,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6368,12 +6393,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6400,16 +6425,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6427,7 +6452,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6460,7 +6485,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6471,7 +6496,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6623,7 +6648,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6674,7 +6699,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6725,7 +6750,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6776,7 +6801,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6827,7 +6852,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6878,7 +6903,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6929,7 +6954,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6980,7 +7005,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7031,7 +7056,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7082,7 +7107,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7133,7 +7158,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7184,7 +7209,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7235,7 +7260,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7286,7 +7311,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7337,7 +7362,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7388,7 +7413,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7439,7 +7464,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7490,7 +7515,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7541,7 +7566,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7694,7 +7719,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7745,7 +7770,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7847,7 +7872,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8051,7 +8076,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8102,7 +8127,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8153,7 +8178,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8204,7 +8229,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8255,7 +8280,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8306,7 +8331,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8324,7 +8349,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8375,7 +8400,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8426,7 +8451,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8477,7 +8502,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8528,7 +8553,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8579,7 +8604,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8630,7 +8655,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8681,7 +8706,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8698,50 +8723,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>5.3536460619390436E-2</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v>0.49636290171258463</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8750,15 +8775,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>2.5993931070684839</v>
+        <v>0.49636290171258463</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8801,167 +8826,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>2.5993931070684839</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.27242491285597292</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.68918582450160215</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>6.7394804405410541E-2</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8969,112 +8995,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.7940195782986134E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>5.3660644931193838E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v>6.7394804405410541E-2</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>4.8541321265297921E-2</v>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.7940195782986134E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>5.3660644931193838E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>4.8541321265297921E-2</v>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>4.6584214673920056E-3</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>4.4211781941387871E-3</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9637,7 +9853,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10320,6 +10538,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10359,8 +10578,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10378,7 +10597,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10393,7 +10612,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10407,7 +10626,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10417,7 +10636,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10435,10 +10654,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10447,12 +10666,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10462,7 +10682,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10472,8 +10692,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10485,7 +10706,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10503,7 +10724,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10522,32 +10743,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10564,7 +10785,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10575,7 +10796,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10592,7 +10813,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10603,7 +10824,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10620,7 +10841,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10631,7 +10852,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10648,7 +10869,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10659,7 +10880,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10676,7 +10897,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10686,7 +10907,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10708,7 +10929,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10730,7 +10951,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10751,7 +10972,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10776,7 +10997,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10803,7 +11024,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10824,7 +11045,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10841,7 +11062,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10853,13 +11074,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10881,7 +11102,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10901,7 +11122,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10910,7 +11131,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10930,7 +11151,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10943,7 +11164,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10963,7 +11184,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11009,7 +11230,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11018,7 +11239,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11034,7 +11255,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11044,7 +11265,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11061,7 +11282,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11071,7 +11292,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11088,7 +11309,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11098,7 +11319,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11118,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11128,7 +11349,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11145,7 +11366,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11155,7 +11376,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11181,7 +11402,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11208,7 +11429,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11235,7 +11456,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11256,7 +11477,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11277,7 +11498,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11298,7 +11519,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11319,7 +11540,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11336,7 +11557,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11354,7 +11575,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11373,7 +11594,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11392,7 +11613,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11409,7 +11630,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11422,7 +11643,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11439,7 +11660,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11452,7 +11673,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11469,7 +11690,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11496,7 +11717,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11512,14 +11733,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11536,7 +11757,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11566,7 +11787,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11577,14 +11798,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11592,30 +11813,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11632,11 +11853,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11646,7 +11867,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11667,7 +11888,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11688,7 +11909,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11709,7 +11930,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11724,7 +11945,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11755,11 +11976,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11769,7 +11990,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11790,7 +12011,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11805,7 +12026,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11827,21 +12048,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11851,23 +12072,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11888,7 +12109,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11918,7 +12139,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11939,7 +12160,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11969,7 +12190,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11999,7 +12220,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12030,7 +12251,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12057,12 +12278,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12092,7 +12313,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12122,7 +12343,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12152,7 +12373,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12173,7 +12394,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12204,7 +12425,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12225,28 +12446,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8366602059223753E-5</v>
+        <v>6.8452211050662503E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8366602059223753E-5</v>
+        <v>6.8452211050662503E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8366602059223753E-5</v>
+        <v>6.8452211050662503E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12276,21 +12497,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1435219310821696E-2</v>
+        <v>1.1449538548031003E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1435219310821696E-2</v>
+        <v>1.1449538548031003E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1435219310821696E-2</v>
+        <v>1.1449538548031003E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12307,29 +12528,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12346,24 +12567,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6868172293581306E-2</v>
+        <v>8.6873626807905391E-2</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6868172293581306E-2</v>
+        <v>8.6873626807905391E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12374,18 +12595,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.374574199049682</v>
+        <v>15.37662141296188</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.374574199049682</v>
+        <v>15.37662141296188</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12404,51 +12625,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>825684.2373253922</v>
+        <v>825736.08262592927</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3188834302252115E-2</v>
+        <v>4.3191546159876401E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3188834302252115E-2</v>
+        <v>4.3191546159876401E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7439643629848651E-2</v>
+        <v>5.7443250305926633E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12466,7 +12687,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12487,31 +12708,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>825684.2373253922</v>
+        <v>825736.08262592927</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6710509156914296E-2</v>
+        <v>3.6712814235894939E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3188834302252115E-2</v>
+        <v>4.3191546159876401E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3188834302252115E-2</v>
+        <v>4.3191546159876401E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3188834302252115E-2</v>
+        <v>4.3191546159876401E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7439643629848651E-2</v>
+        <v>5.7443250305926633E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12521,58 +12742,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146135727.6960113</v>
+        <v>146155186.51750025</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4972985158521146</v>
+        <v>6.4981636689120394</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6438806068848413</v>
+        <v>7.6448984340141646</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.6438806068848413</v>
+        <v>7.6448984340141646</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6438806068848413</v>
+        <v>7.6448984340141646</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.166094665483511</v>
+        <v>10.167448340073939</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12582,58 +12803,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73480705.966668338</v>
+        <v>73490461.300063089</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2670045125045144</v>
+        <v>3.2674382415739673</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8435347205935466</v>
+        <v>3.8440449900870206</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.8435347205935466</v>
+        <v>3.8440449900870206</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.8435347205935466</v>
+        <v>3.8440449900870206</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1117671545566798</v>
+        <v>5.1124457951899327</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12642,7 +12863,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12651,6 +12872,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A43E1B-F144-46B3-B34B-7AD2FD354BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DE7101-BE39-4F5D-8504-6B6AC8A109FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.62297379426414834</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22247037723339511</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.796700836974199E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4437634938714454E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14573239492488765</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>19118002388</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45565</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3943,7 +3106,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>7947</v>
@@ -4072,7 +3235,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4182,7 +3345,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4219,7 +3382,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.125*7.2</f>
@@ -4241,15 +3404,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1449538548031003E-2</v>
+        <v>1.1462104824627348E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1449538548031003E-2</v>
+        <v>1.1462104824627348E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4290,13 +3453,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4355,7 +3518,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4366,7 +3529,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4467,7 +3630,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4478,7 +3641,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4638,7 +3801,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4656,7 +3819,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4664,10 +3827,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4677,16 +3840,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4695,10 +3858,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4747,7 +3910,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4768,7 +3931,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4786,7 +3949,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4825,7 +3988,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4843,7 +4006,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4929,8 +4092,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4971,62 +4134,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>84.05</v>
+        <v>83.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>19118002388</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1606868.1007113999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>1604956.3004726002</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5049,16 +4212,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5073,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5083,40 +4246,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5129,29 +4292,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5161,12 +4324,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5174,9 +4337,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5184,59 +4347,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.62297379426414834</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.22247037723339511</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>3.796700836974199E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.15417615841875909</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5245,30 +4408,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14608.731911667324</v>
+        <v>14592.715885925747</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5277,18 +4440,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.14573239492488765</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1449538548031003E-2</v>
+        <v>1.1462104824627348E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5298,62 +4461,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6712814235894939E-2</v>
+        <v>3.6709393975144916E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.6059737851815625E-2</v>
+        <v>6.6053583555741258E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3191546159876401E-2</v>
-      </c>
-      <c r="G29" s="278">
+        <v>4.3187522323699906E-2</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7443250305926633E-2</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>5.7437898744122834E-2</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5363,7 +4526,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5374,14 +4537,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5391,7 +4554,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5401,14 +4564,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5418,7 +4581,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5433,14 +4596,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6384,7 +5547,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6398,7 +5560,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6425,16 +5587,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6452,7 +5614,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6485,7 +5647,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6852,7 +6014,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6903,7 +6065,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6954,7 +6116,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7005,7 +6167,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7107,7 +6269,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7260,7 +6422,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7770,7 +6932,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8280,7 +7442,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8331,7 +7493,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8400,7 +7562,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8604,7 +7766,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8706,7 +7868,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8724,15 +7886,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>5.3536460619390436E-2</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>2.4000406910651341E-2</v>
       </c>
       <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
@@ -8775,7 +7937,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8826,7 +7988,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8877,7 +8039,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8928,7 +8090,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8945,7 +8107,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9145,7 +8307,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9153,7 +8315,7 @@
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9195,7 +8357,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9245,7 +8407,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10749,7 +9911,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10907,7 +10069,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11319,7 +10481,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11787,7 +10949,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11801,11 +10963,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11816,11 +10978,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11832,11 +10994,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11853,7 +11015,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11930,7 +11092,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11976,7 +11138,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12011,7 +11173,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12050,19 +11212,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12072,18 +11234,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12160,7 +11322,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12190,7 +11352,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12220,7 +11382,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12283,7 +11445,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12313,7 +11475,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12394,7 +11556,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12425,7 +11587,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12446,28 +11608,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8452211050662503E-5</v>
+        <v>6.8527339791797838E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8452211050662503E-5</v>
+        <v>6.8527339791797838E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8452211050662503E-5</v>
+        <v>6.8527339791797838E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12497,21 +11659,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1449538548031003E-2</v>
+        <v>1.1462104824627348E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1449538548031003E-2</v>
+        <v>1.1462104824627348E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1449538548031003E-2</v>
+        <v>1.1462104824627348E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12533,24 +11695,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12567,24 +11729,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6873626807905391E-2</v>
+        <v>8.6865533436090478E-2</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6873626807905391E-2</v>
+        <v>8.6865533436090478E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12595,18 +11757,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.37662141296188</v>
+        <v>15.376138244135701</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.37662141296188</v>
+        <v>15.376138244135701</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12625,14 +11787,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12649,21 +11811,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>825736.08262592927</v>
+        <v>825659.15491629811</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3191546159876401E-2</v>
+        <v>4.3187522323699906E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3191546159876401E-2</v>
+        <v>4.3187522323699906E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7443250305926633E-2</v>
+        <v>5.7437898744122834E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12712,27 +11874,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>825736.08262592927</v>
+        <v>825659.15491629811</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6712814235894939E-2</v>
+        <v>3.6709393975144916E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3191546159876401E-2</v>
+        <v>4.3187522323699906E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3191546159876401E-2</v>
+        <v>4.3187522323699906E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3191546159876401E-2</v>
+        <v>4.3187522323699906E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7443250305926633E-2</v>
+        <v>5.7437898744122834E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12742,21 +11904,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12769,31 +11931,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146155186.51750025</v>
+        <v>146150593.98523891</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4981636689120394</v>
+        <v>6.4979594816573822</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6448984340141646</v>
+        <v>7.6446582137145676</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.6448984340141646</v>
+        <v>7.6446582137145676</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6448984340141646</v>
+        <v>7.6446582137145676</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.167448340073939</v>
+        <v>10.167128855451942</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12803,21 +11965,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12830,31 +11992,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73490461.300063089</v>
+        <v>73488126.570077613</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2674382415739673</v>
+        <v>3.2673344378162636</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8440449900870206</v>
+        <v>3.8439228680191335</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.8440449900870206</v>
+        <v>3.8439228680191335</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.8440449900870206</v>
+        <v>3.8439228680191335</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1124457951899327</v>
+        <v>5.1122833770980325</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12863,7 +12025,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DE7101-BE39-4F5D-8504-6B6AC8A109FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2195E469-AD32-4120-A180-7BDDCC278988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>19118002388</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45565</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3106,7 +3126,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>7947</v>
@@ -3196,9 +3216,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3216,7 +3236,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3235,7 +3255,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3252,10 +3272,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>7382230</v>
       </c>
@@ -3269,9 +3290,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3326,10 +3347,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>26334346</v>
       </c>
@@ -3345,9 +3367,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>1389487</v>
       </c>
@@ -3363,7 +3385,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3382,7 +3404,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.125*7.2</f>
@@ -3404,15 +3426,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1462104824627348E-2</v>
+        <v>1.1407038412224138E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1462104824627348E-2</v>
+        <v>1.1407038412224138E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3453,13 +3475,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3477,7 +3499,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3487,7 +3509,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3518,7 +3540,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3529,7 +3551,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3563,7 +3585,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3630,7 +3652,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3641,7 +3663,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3688,7 +3710,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3801,7 +3823,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3819,7 +3841,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3827,10 +3849,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3838,7 +3860,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3846,10 +3868,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3871,7 +3893,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3910,7 +3932,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3931,7 +3953,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3949,7 +3971,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3988,7 +4010,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4006,7 +4028,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4029,28 +4051,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4092,8 +4119,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4134,7 +4161,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4146,15 +4173,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>83.95</v>
+        <v>84.35</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4174,7 +4201,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4187,7 +4214,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1604956.3004726002</v>
+        <v>1612603.5014277997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4221,7 +4248,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4236,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4246,40 +4273,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4292,29 +4319,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4324,12 +4351,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4339,7 +4366,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4347,21 +4374,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4369,10 +4396,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4380,58 +4407,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.15417615841875909</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14592.715885925747</v>
+        <v>14663.160858759024</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4440,18 +4467,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1462104824627348E-2</v>
+        <v>1.1407038412224138E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4461,40 +4488,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6709393975144916E-2</v>
+        <v>3.6707044188586717E-2</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.6053583555741258E-2</v>
+        <v>6.6049355433019707E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3187522323699906E-2</v>
+        <v>4.3184757868925547E-2</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7437898744122834E-2</v>
+        <v>5.7434222115669314E-2</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4502,21 +4529,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4526,25 +4553,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4554,7 +4581,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4564,14 +4591,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4581,7 +4608,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4596,14 +4623,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5503,27 +5530,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5555,12 +5582,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5587,16 +5614,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5614,7 +5641,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5647,7 +5674,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5658,7 +5685,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6014,7 +6041,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6065,7 +6092,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6116,7 +6143,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6167,7 +6194,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6269,7 +6296,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6422,7 +6449,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6677,7 +6704,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6728,7 +6755,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6782,15 +6809,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>36194678</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>33716576</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6830,50 +6857,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>22554271</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>431184</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6881,50 +6908,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>431184</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>2258059</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6932,101 +6959,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>2258059</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>7382230</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>7382230</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>592316</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7034,101 +7061,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>2478102</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>1044096</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>592316</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>1636412</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7136,50 +7163,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>1044096</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>26334346</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7187,50 +7214,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>1636412</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>1389487</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7238,50 +7265,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>26334346</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>19968596</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7289,272 +7316,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>1389487</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>13747980</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>19968596</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>8.4524174945458663E-3</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>16226082</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>7.1615357710300412E-3</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.62297379426414834</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.63278833457850758</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.63236904234393276</v>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.22247037723339511</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.23302179035717122</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.24287331987592931</v>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.62297379426414834</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.63278833457850758</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.63236904234393276</v>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7562,50 +7589,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.22247037723339511</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>8.4437634938714454E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.23302179035717122</v>
+        <f t="shared" si="37"/>
+        <v>6.8125803655401775E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.24287331987592931</v>
+        <f t="shared" si="37"/>
+        <v>5.7545641465684789E-3</v>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7613,50 +7640,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>3.796700836974199E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>4.205580759621513E-4</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>4.5326912541722252E-4</v>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7664,50 +7691,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>8.4437634938714454E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>6.8125803655401775E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.7545641465684789E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7715,221 +7742,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>3.796700836974199E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.14573239492488765</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>4.205580759621513E-4</v>
+        <f t="shared" si="40"/>
+        <v>0.12695673662281889</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>4.5326912541722252E-4</v>
+        <f t="shared" si="40"/>
+        <v>0.1185498045081522</v>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.14573239492488765</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.12695673662281889</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.1185498045081522</v>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>2.5764389598754038E-2</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.49636290171258463</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>2.4000406910651341E-2</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>2.5993931070684839</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7937,522 +7964,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.49636290171258463</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>2.5993931070684839</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.73983962665722636</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>6.7394804405410541E-2</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.68918582450160215</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>5.7940195782986134E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>5.3660644931193838E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>4.8541321265297921E-2</v>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>6.7394804405410541E-2</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>5.7940195782986134E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>5.3660644931193838E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>4.8541321265297921E-2</v>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v>Error</v>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.055211094750502</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>4.6584214673920056E-3</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>4.4211781941387871E-3</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>4.6584214673920056E-3</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>4.4211781941387871E-3</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9012,12 +8943,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9699,27 +9626,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9911,7 +9841,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9958,7 +9888,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9986,7 +9916,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10069,7 +9999,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10091,7 +10021,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10159,7 +10089,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10481,7 +10411,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10618,7 +10548,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10949,7 +10879,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11015,7 +10945,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11050,7 +10980,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11071,7 +11001,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11092,7 +11022,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11107,7 +11037,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11138,7 +11068,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11152,7 +11082,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11173,7 +11103,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11188,7 +11118,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11210,7 +11140,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11218,11 +11148,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11250,7 +11180,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11322,7 +11252,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11352,7 +11282,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11382,7 +11312,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11440,12 +11370,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11475,7 +11405,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11505,7 +11435,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11556,7 +11486,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11587,7 +11517,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11608,28 +11538,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8527339791797838E-5</v>
+        <v>6.8198119739145533E-5</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8527339791797838E-5</v>
+        <v>6.8198119739145533E-5</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8527339791797838E-5</v>
+        <v>6.8198119739145533E-5</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11659,21 +11589,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1462104824627348E-2</v>
+        <v>1.1407038412224138E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1462104824627348E-2</v>
+        <v>1.1407038412224138E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1462104824627348E-2</v>
+        <v>1.1407038412224138E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11690,27 +11620,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11729,24 +11659,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6865533436090478E-2</v>
+        <v>8.6859973130110554E-2</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6865533436090478E-2</v>
+        <v>8.6859973130110554E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11757,18 +11687,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.376138244135701</v>
+        <v>15.370994465516583</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.376138244135701</v>
+        <v>15.370994465516583</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11787,14 +11717,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11807,31 +11737,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>825659.15491629811</v>
+        <v>825606.30406332039</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3187522323699906E-2</v>
+        <v>4.3184757868925547E-2</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3187522323699906E-2</v>
+        <v>4.3184757868925547E-2</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7437898744122834E-2</v>
+        <v>5.7434222115669314E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11849,7 +11779,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11874,27 +11804,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>825659.15491629811</v>
+        <v>825606.30406332039</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6709393975144916E-2</v>
+        <v>3.6707044188586717E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3187522323699906E-2</v>
+        <v>4.3184757868925547E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3187522323699906E-2</v>
+        <v>4.3184757868925547E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3187522323699906E-2</v>
+        <v>4.3184757868925547E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7437898744122834E-2</v>
+        <v>5.7434222115669314E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11904,21 +11834,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11931,31 +11861,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146150593.98523891</v>
+        <v>146101702.23566067</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4979594816573822</v>
+        <v>6.4957857196555739</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6446582137145676</v>
+        <v>7.6421008466536167</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.6446582137145676</v>
+        <v>7.6421008466536167</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6446582137145676</v>
+        <v>7.6421008466536167</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.167128855451942</v>
+        <v>10.16372764643612</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11965,21 +11895,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11992,31 +11922,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73488126.570077613</v>
+        <v>73463654.269861996</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2673344378162636</v>
+        <v>3.2662463819220804</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8439228680191335</v>
+        <v>3.8426428022612713</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.8439228680191335</v>
+        <v>3.8426428022612713</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.8439228680191335</v>
+        <v>3.8426428022612713</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1122833770980325</v>
+        <v>5.1105809342758945</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12025,7 +11955,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2195E469-AD32-4120-A180-7BDDCC278988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{203CF69F-A45E-4DEB-8B8A-3697DE05CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>19118002388</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45565</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,450 +3045,454 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>941168</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>868687</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>853062</v>
       </c>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>586323</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>549695</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>539450</v>
       </c>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>115141+41985</f>
         <v>157126</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>103496+42183</f>
         <v>145679</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <f>119799+31922</f>
         <v>151721</v>
       </c>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>52256</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>56744</v>
       </c>
-      <c r="E28" s="150">
+      <c r="E28" s="149">
         <v>55465</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>7947</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>5918</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>4909</v>
       </c>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>268</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>274</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>290</v>
       </c>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>22554271</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <f>431184</f>
         <v>431184</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>2258059</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149">
         <v>7382230</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>2478102</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <f>504914+87402</f>
         <v>592316</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <f>872836+171260</f>
         <v>1044096</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149">
         <v>26334346</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149">
         <v>1389487</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <f>211741+3338+99866+1800+540000+8670910+10440941</f>
         <v>19968596</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.125*7.2</f>
         <v>0.9</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.125*7.2</f>
         <v>0.9</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1407038412224138E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>1.158325298722968E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1407038412224138E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>1.158325298722968E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3551,7 +3563,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3579,7 +3591,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3591,7 +3603,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3610,8 +3622,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3663,7 +3675,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3679,7 +3691,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3691,7 +3703,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3704,7 +3716,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3752,14 +3764,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3783,7 +3795,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3813,19 +3825,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3841,20 +3853,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3884,10 +3896,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3899,12 +3911,12 @@
         <f>C25</f>
         <v>941168</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>941168</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>941168</v>
       </c>
@@ -3917,75 +3929,75 @@
         <f>C26</f>
         <v>586323</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>586323</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>586323</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>209382</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>209382</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>209382</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>7947</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>7947.0000000000009</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3998,12 +4010,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4016,12 +4028,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>357.33333333333331</v>
       </c>
@@ -4030,16 +4042,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.9</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.9</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.9</v>
       </c>
@@ -4120,7 +4132,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4172,11 +4184,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>84.35</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>83</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4214,7 +4226,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1612603.5014277997</v>
+        <v>1586794.198204</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4224,11 +4236,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45808</v>
       </c>
@@ -4250,11 +4262,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -4262,8 +4274,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4272,10 +4284,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4283,7 +4295,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4291,13 +4303,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4306,12 +4318,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4321,7 +4333,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4332,7 +4344,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4340,13 +4352,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4356,49 +4368,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4406,79 +4418,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14663.160858759024</v>
+        <v>14440.09203156404</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>167.26323916048565</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1407038412224138E-2</v>
+        <v>1.158325298722968E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4495,10 +4507,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4506,22 +4518,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6707044188586717E-2</v>
-      </c>
-      <c r="D29" s="129">
+        <v>3.6677721234867081E-2</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>6.6049355433019707E-2</v>
+        <v>6.5996592748489083E-2</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3184757868925547E-2</v>
+        <v>4.315026027631421E-2</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7434222115669314E-2</v>
+        <v>5.7388341520425296E-2</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4529,23 +4541,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4553,9 +4565,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4563,17 +4575,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4581,26 +4593,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4608,9 +4620,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4623,16 +4635,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5584,10 +5596,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5613,16 +5625,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5636,11 +5648,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5665,7 +5677,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5673,7 +5685,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5737,47 +5749,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>941168</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>868687</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>853062</v>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5839,47 +5851,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>586323</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>549695</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>539450</v>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5890,47 +5902,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>354845</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>318992</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>313612</v>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5941,47 +5953,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>157126</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>145679</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>151721</v>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5992,47 +6004,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>52256</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>56744</v>
       </c>
-      <c r="E11" s="199">
+      <c r="E11" s="198">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>55465</v>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6041,49 +6053,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>365.33333333333331</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>386.66666666666669</v>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6091,50 +6103,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.13376931698835906</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.12430436865472068</v>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6142,50 +6154,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>116203.66666666667</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>106039.33333333333</v>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6193,50 +6205,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.24871848564732596</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>9.5854368504768764E-2</v>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6247,47 +6259,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6296,49 +6308,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7947</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5918</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>4909</v>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6349,47 +6361,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6400,47 +6412,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6449,49 +6461,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6502,47 +6514,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6553,47 +6565,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>110285.66666666667</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>101130.33333333333</v>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6604,47 +6616,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>9.5217552467114164E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>8.8912353381114154E-2</v>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6655,7 +6667,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>102869</v>
       </c>
@@ -6703,50 +6715,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.24366720365596012</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>9.0530042090899196E-2</v>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6863,43 +6875,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6914,43 +6926,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6959,49 +6971,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7016,43 +7028,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7067,43 +7079,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7169,43 +7181,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7220,43 +7232,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7271,43 +7283,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7369,47 +7381,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>8.4524174945458663E-3</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7418,7 +7430,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7438,47 +7450,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.63278833457850758</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.63236904234393276</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7487,49 +7499,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.23302179035717122</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.24287331987592931</v>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7540,47 +7552,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7591,47 +7603,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>6.8125803655401775E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>5.7545641465684789E-3</v>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7642,47 +7654,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>4.205580759621513E-4</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>4.5326912541722252E-4</v>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7691,49 +7703,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7744,47 +7756,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.12695673662281889</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.1185498045081522</v>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7793,9 +7805,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7810,50 +7824,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272">
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>2.5764389598754038E-2</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7862,49 +7876,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>0.49636290171258463</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7913,49 +7927,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>2.5993931070684839</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7964,49 +7978,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8015,7 +8029,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8032,49 +8046,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156">
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.73983962665722636</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8084,47 +8098,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>6.7394804405410541E-2</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8134,47 +8148,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.7940195782986134E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>5.3660644931193838E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>4.8541321265297921E-2</v>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8184,47 +8198,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8232,149 +8246,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v>Error</v>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274">
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>4.6584214673920056E-3</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274">
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>4.4211781941387871E-3</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9670,8 +9684,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9707,8 +9721,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9720,8 +9734,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9731,8 +9745,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9819,11 +9833,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45565</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9866,7 +9880,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9894,7 +9908,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9922,7 +9936,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9950,7 +9964,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9963,7 +9977,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9978,7 +9992,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10005,7 +10019,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10027,7 +10041,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10049,7 +10063,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10070,7 +10084,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10078,7 +10092,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10095,7 +10109,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10103,7 +10117,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10122,7 +10136,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10143,7 +10157,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10308,7 +10322,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10337,7 +10351,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10363,7 +10377,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10390,7 +10404,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10417,7 +10431,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10433,7 +10447,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10447,7 +10461,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10474,7 +10488,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10482,7 +10496,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10500,7 +10514,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10508,7 +10522,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10527,7 +10541,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10535,7 +10549,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10554,7 +10568,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10575,7 +10589,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10596,7 +10610,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10617,7 +10631,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10638,7 +10652,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10784,8 +10798,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10811,8 +10825,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10882,7 +10896,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10982,7 +10996,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10990,7 +11004,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11021,11 +11035,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11102,12 +11116,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11186,17 +11200,17 @@
         <f>Data!C6</f>
         <v>941168</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>941168</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>941168</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11207,23 +11221,23 @@
         <f>Data!C8</f>
         <v>586323</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>586323</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>586323</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.62297379426414834</v>
       </c>
@@ -11233,48 +11247,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>354845</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>354845</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>354845</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>209382</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>209382</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>209382</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.22247037723339511</v>
       </c>
@@ -11288,54 +11302,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>3.796700836974199E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.15417615841875909</v>
       </c>
@@ -11349,55 +11363,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>7947</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>7947.0000000000009</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>7947.0000000000009</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>8.4437634938714454E-3</v>
       </c>
@@ -11405,29 +11419,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11437,27 +11451,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.14573239492488765</v>
       </c>
@@ -11467,49 +11481,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>102869</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>102869</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>102869</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.10929929619366574</v>
       </c>
@@ -11519,69 +11533,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>5.3807399911493308E-3</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>5.3807399911493308E-3</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>5.3807399911493308E-3</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8198119739145533E-5</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>6.9251636195540766E-5</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8198119739145533E-5</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>6.9251636195540766E-5</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8198119739145533E-5</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>6.9251636195540766E-5</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.9</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>167.26323916048565</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.9</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>167.26323916048565</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.9</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>167.26323916048565</v>
       </c>
@@ -11589,23 +11603,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1407038412224138E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>1.158325298722968E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1407038412224138E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>1.158325298722968E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1407038412224138E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>1.158325298722968E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11627,7 +11641,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11650,27 +11664,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6859973130110554E-2</v>
+        <v>8.6790586149260301E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6859973130110554E-2</v>
+        <v>8.6790586149260301E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11678,27 +11692,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.370994465516583</v>
+        <v>15.372018764610676</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.370994465516583</v>
+        <v>15.372018764610676</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11712,25 +11726,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11741,21 +11755,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>825606.30406332039</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>824946.77900539665</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3184757868925547E-2</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>4.315026027631421E-2</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3184757868925547E-2</v>
-      </c>
-      <c r="I97" s="123">
+        <v>4.315026027631421E-2</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7434222115669314E-2</v>
+        <v>5.7388341520425296E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11767,14 +11781,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11785,17 +11799,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11804,27 +11818,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>825606.30406332039</v>
+        <v>824946.77900539665</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6707044188586717E-2</v>
+        <v>3.6677721234867081E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3184757868925547E-2</v>
+        <v>4.315026027631421E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3184757868925547E-2</v>
+        <v>4.315026027631421E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3184757868925547E-2</v>
+        <v>4.315026027631421E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7434222115669314E-2</v>
+        <v>5.7388341520425296E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11836,25 +11850,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11865,27 +11879,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146101702.23566067</v>
+        <v>146111438.22519478</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4957857196555739</v>
-      </c>
-      <c r="E103" s="123">
+        <v>6.4962185886832087</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6421008466536167</v>
+        <v>7.6426101043331869</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.6421008466536167</v>
-      </c>
-      <c r="H103" s="123">
+        <v>7.6426101043331869</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6421008466536167</v>
+        <v>7.6426101043331869</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.16372764643612</v>
+        <v>10.164404941392162</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11897,25 +11911,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11926,27 +11940,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73463654.269861996</v>
+        <v>73468192.502100095</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2662463819220804</v>
-      </c>
-      <c r="E106" s="123">
+        <v>3.2664481549590381</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.8426428022612713</v>
+        <v>3.8428801823047505</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.8426428022612713</v>
-      </c>
-      <c r="H106" s="123">
+        <v>3.8428801823047505</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.8426428022612713</v>
-      </c>
-      <c r="I106" s="123">
+        <v>3.8428801823047505</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>5.1105809342758945</v>
+        <v>5.1108966414562937</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11957,14 +11971,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203CF69F-A45E-4DEB-8B8A-3697DE05CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A059C5-80A3-4068-BC95-8D2535B63391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3283,9 +3283,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149">
         <v>7382230</v>
       </c>
@@ -3359,9 +3357,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149">
         <v>26334346</v>
       </c>
@@ -3379,9 +3375,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149">
         <v>1389487</v>
       </c>
@@ -3442,11 +3436,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.158325298722968E-2</v>
+        <v>1.1603862316981094E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.158325298722968E-2</v>
+        <v>1.1603862316981094E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4185,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>83</v>
+        <v>82.85</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4226,7 +4220,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1586794.198204</v>
+        <v>1583926.4978457999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4275,7 +4269,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4458,7 +4452,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14440.09203156404</v>
+        <v>14414.445345125529</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4490,7 +4484,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.158325298722968E-2</v>
+        <v>1.1603862316981094E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4520,20 +4514,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6677721234867081E-2</v>
+        <v>3.6676599141091552E-2</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>6.5996592748489083E-2</v>
+        <v>6.5994573692685299E-2</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.315026027631421E-2</v>
+        <v>4.3148940165990066E-2</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7388341520425296E-2</v>
+        <v>5.7386585819726346E-2</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11556,17 +11550,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9251636195540766E-5</v>
+        <v>6.9374851134189892E-5</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9251636195540766E-5</v>
+        <v>6.9374851134189892E-5</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9251636195540766E-5</v>
+        <v>6.9374851134189892E-5</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11607,17 +11601,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.158325298722968E-2</v>
+        <v>1.1603862316981094E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.158325298722968E-2</v>
+        <v>1.1603862316981094E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.158325298722968E-2</v>
+        <v>1.1603862316981094E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11677,14 +11671,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6790586149260301E-2</v>
+        <v>8.6787930935871532E-2</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6790586149260301E-2</v>
+        <v>8.6787930935871532E-2</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11705,14 +11699,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.372018764610676</v>
+        <v>15.373104925716721</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.372018764610676</v>
+        <v>15.373104925716721</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11755,21 +11749,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>824946.77900539665</v>
+        <v>824921.54113306722</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.315026027631421E-2</v>
+        <v>4.3148940165990066E-2</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.315026027631421E-2</v>
+        <v>4.3148940165990066E-2</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7388341520425296E-2</v>
+        <v>5.7386585819726346E-2</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11818,27 +11812,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>824946.77900539665</v>
+        <v>824921.54113306722</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6677721234867081E-2</v>
+        <v>3.6676599141091552E-2</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.315026027631421E-2</v>
+        <v>4.3148940165990066E-2</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.315026027631421E-2</v>
+        <v>4.3148940165990066E-2</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.315026027631421E-2</v>
+        <v>4.3148940165990066E-2</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7388341520425296E-2</v>
+        <v>5.7386585819726346E-2</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11879,27 +11873,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146111438.22519478</v>
+        <v>146121762.21476176</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4962185886832087</v>
+        <v>6.4966776006110134</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6426101043331869</v>
+        <v>7.6431501183658987</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.6426101043331869</v>
+        <v>7.6431501183658987</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6426101043331869</v>
+        <v>7.6431501183658987</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.164404941392162</v>
+        <v>10.165123141225411</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11940,27 +11934,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73468192.502100095</v>
+        <v>73473341.877947405</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2664481549590381</v>
+        <v>3.2666770998760524</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.8428801823047505</v>
+        <v>3.8431495292659443</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.8428801823047505</v>
+        <v>3.8431495292659443</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.8428801823047505</v>
+        <v>3.8431495292659443</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>5.1108966414562937</v>
+        <v>5.1112548635225687</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A059C5-80A3-4068-BC95-8D2535B63391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{521CE452-A41C-4450-85E1-484E9A1B002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -882,9 +875,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Unclear</t>
-  </si>
-  <si>
     <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -992,6 +978,14 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>9988.HK</t>
   </si>
   <si>
@@ -1005,6 +999,12 @@
   </si>
   <si>
     <t>CNY</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>HKD</t>
@@ -1684,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="190">
+        <v>19080551940</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="191" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>19118002388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="191" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,1010 +3039,1049 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>941168</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>868687</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>853062</v>
       </c>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>586323</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>549695</v>
       </c>
-      <c r="E26" s="149">
+      <c r="E26" s="148">
         <v>539450</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>115141+41985</f>
         <v>157126</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>103496+42183</f>
         <v>145679</v>
       </c>
-      <c r="E27" s="149">
+      <c r="E27" s="148">
         <f>119799+31922</f>
         <v>151721</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148">
+        <v>52256</v>
+      </c>
+      <c r="D28" s="148">
+        <v>56744</v>
+      </c>
+      <c r="E28" s="148">
+        <v>55465</v>
+      </c>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>7947</v>
+      </c>
+      <c r="D29" s="148">
+        <v>5918</v>
+      </c>
+      <c r="E29" s="148">
+        <v>4909</v>
+      </c>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>268</v>
+      </c>
+      <c r="D30" s="148">
+        <v>274</v>
+      </c>
+      <c r="E30" s="148">
+        <v>290</v>
+      </c>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>52256</v>
-      </c>
-      <c r="D28" s="149">
-        <v>56744</v>
-      </c>
-      <c r="E28" s="149">
-        <v>55465</v>
-      </c>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>7947</v>
-      </c>
-      <c r="D29" s="149">
-        <v>5918</v>
-      </c>
-      <c r="E29" s="149">
-        <v>4909</v>
-      </c>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>268</v>
-      </c>
-      <c r="D30" s="149">
-        <v>274</v>
-      </c>
-      <c r="E30" s="149">
-        <v>290</v>
-      </c>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>22554271</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
-        <f>431184</f>
-        <v>431184</v>
-      </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
-        <v>2258059</v>
-      </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149">
-        <v>7382230</v>
-      </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
-        <v>2478102</v>
-      </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
+        <v>652230</v>
+      </c>
+      <c r="D37" s="148">
+        <f>385351+244772</f>
+        <v>630123</v>
+      </c>
+      <c r="E37" s="148">
+        <f>383784+229576</f>
+        <v>613360</v>
+      </c>
+      <c r="F37" s="148">
+        <f>377358+229226</f>
+        <v>606584</v>
+      </c>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
-        <f>504914+87402</f>
-        <v>592316</v>
-      </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
-        <f>872836+171260</f>
-        <v>1044096</v>
-      </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <f>1101871+10728</f>
+        <v>1112599</v>
+      </c>
+      <c r="D41" s="148">
+        <f>1113063+9858</f>
+        <v>1122921</v>
+      </c>
+      <c r="E41" s="148">
+        <v>1082193</v>
+      </c>
+      <c r="F41" s="148">
+        <v>1083634</v>
+      </c>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149">
-        <v>26334346</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149">
-        <v>1389487</v>
-      </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148">
+        <v>115327</v>
+      </c>
+      <c r="D42" s="148">
+        <v>123406</v>
+      </c>
+      <c r="E42" s="148">
+        <v>124059</v>
+      </c>
+      <c r="F42" s="148">
+        <v>137491</v>
+      </c>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
-        <f>211741+3338+99866+1800+540000+8670910+10440941</f>
-        <v>19968596</v>
-      </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.125*7.2</f>
         <v>0.9</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.125*7.2</f>
         <v>0.9</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1603862316981094E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>1.1524820070472551E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1603862316981094E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>1.1524820070472551E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="59"/>
+        <v>33</v>
+      </c>
+      <c r="C48" s="59">
+        <v>248125</v>
+      </c>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="C49" s="59">
+        <v>38299</v>
+      </c>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="C50" s="59">
+        <v>143536</v>
+      </c>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="59"/>
+        <v>37</v>
+      </c>
+      <c r="C51" s="59">
+        <v>59949</v>
+      </c>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="59"/>
+        <v>39</v>
+      </c>
+      <c r="C52" s="59">
+        <v>262955</v>
+      </c>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="59">
+        <f>220942+203131</f>
+        <v>424073</v>
+      </c>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="59"/>
+        <v>241</v>
+      </c>
+      <c r="C64" s="59">
+        <v>116102</v>
+      </c>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="59"/>
+        <v>113</v>
+      </c>
+      <c r="C68" s="59">
+        <v>185161</v>
+      </c>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="59"/>
+        <v>69</v>
+      </c>
+      <c r="C70" s="59">
+        <v>26950</v>
+      </c>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
+        <v>259679</v>
+      </c>
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="59"/>
+        <v>34</v>
+      </c>
+      <c r="C73" s="59">
+        <v>12749</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
+        <v>16252</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82">
+        <v>421507</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="59"/>
+        <v>57</v>
+      </c>
+      <c r="C78" s="59">
+        <v>55686</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118">
+        <v>86089</v>
+      </c>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
-        <v>0.02</v>
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
+        <v>0.03</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
     <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000CNY)</v>
-      </c>
-      <c r="C90" s="284" t="s">
+        <v>(Numbers in 1000000CNY)</v>
+      </c>
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>941168</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>941168</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>941168</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>586323</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>586323</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>586323</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>209382</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>209382</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>209382</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>7947</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>7947.0000000000009</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>357.33333333333331</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.9</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.9</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.9</v>
       </c>
@@ -4058,32 +4094,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4142,13 +4178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4159,84 +4195,84 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>9988.HK : 阿里巴巴</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>82.85</v>
-      </c>
-      <c r="H3" s="133" t="s">
+      <c r="G3" s="130">
+        <v>83.4</v>
+      </c>
+      <c r="H3" s="132" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
-        <v>19118002388</v>
-      </c>
-      <c r="H4" s="295"/>
+        <v>19080551940</v>
+      </c>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>1583926.4978457999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>1591318.031796</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
-        <v>45808</v>
+        <v>45626</v>
       </c>
       <c r="E6" s="51">
         <f>IF(Fin_Analysis!E9="FY",Fin_Analysis!D9,Data!C3)</f>
@@ -4245,31 +4281,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4278,345 +4314,345 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.14550259775333776</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
+        <f>Data!C53</f>
+        <v>0.56508137615599019</v>
+      </c>
+      <c r="F21" s="86"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="274" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
-        <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="C22" s="275">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+        <v>0.53329132737506013</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.3392468197143408</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14414.445345125529</v>
+        <v>14.484875641518395</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
-        <v>167.26323916048565</v>
+        <v>0.16693558551167018</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1603862316981094E-2</v>
+        <v>1.1524820070472551E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6676599141091552E-2</v>
-      </c>
-      <c r="D29" s="128">
+        <v>60.796978441833886</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.5994573692685299E-2</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>110.06769094981712</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3148940165990066E-2</v>
-      </c>
-      <c r="G29" s="286">
+        <v>71.525856990392811</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7386585819726346E-2</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>95.711035608536633</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
-        <v>#DIV/0!</v>
+        <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4629,18 +4665,18 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
-        <v>Unclear</v>
+        <v>Consumer Monopoly</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5590,10 +5626,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5619,79 +5655,79 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5740,928 +5776,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>941168</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>868687</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>853062</v>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>8.3437417619925291E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>1.8316370908562307E-2</v>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>586323</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>549695</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>539450</v>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>354845</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>318992</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>313612</v>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>157126</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>145679</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>151721</v>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>52256</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>56744</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="196">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>55465</v>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>365.33333333333331</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>386.66666666666669</v>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.13376931698835906</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.12430436865472068</v>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>116203.66666666667</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>106039.33333333333</v>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.24871848564732596</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>9.5854368504768764E-2</v>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>7947</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>5918</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>4909</v>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>110285.66666666667</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>101130.33333333333</v>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>9.5217552467114164E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>8.8912353381114154E-2</v>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>102869</v>
       </c>
@@ -6705,67 +6741,67 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.24366720365596012</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>9.0530042090899196E-2</v>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
-        <v>45565</v>
+        <v>45382</v>
       </c>
       <c r="D26" s="49">
         <f>D5</f>
@@ -6807,28 +6843,28 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41729</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>1764829</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v>33716576</v>
-      </c>
-      <c r="E27" s="65" t="str">
+        <v>1753044</v>
+      </c>
+      <c r="E27" s="65">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
-        <v/>
-      </c>
-      <c r="F27" s="65" t="str">
+        <v>1695553</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1690218</v>
       </c>
       <c r="G27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6858,275 +6894,275 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="198">
+        <v>143536</v>
+      </c>
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>431184</v>
-      </c>
-      <c r="E28" s="198" t="str">
+        <v/>
+      </c>
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>2258059</v>
-      </c>
-      <c r="E29" s="198" t="str">
+        <v/>
+      </c>
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198">
+        <v>652230</v>
+      </c>
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>7382230</v>
-      </c>
-      <c r="E30" s="198" t="str">
+        <v>630123</v>
+      </c>
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v/>
-      </c>
-      <c r="F30" s="198" t="str">
+        <v>613360</v>
+      </c>
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v/>
-      </c>
-      <c r="G30" s="198" t="str">
+        <v>606584</v>
+      </c>
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="198">
+        <v>29001</v>
+      </c>
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>592316</v>
-      </c>
-      <c r="E31" s="198" t="str">
+        <v/>
+      </c>
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="198">
+        <v>141775</v>
+      </c>
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>1044096</v>
-      </c>
-      <c r="E32" s="198" t="str">
+        <v/>
+      </c>
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
         <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="77">
+        <v>170776</v>
+      </c>
+      <c r="D33" s="77" t="str">
         <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
-        <v>1636412</v>
+        <v/>
       </c>
       <c r="E33" s="77" t="str">
         <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
@@ -7164,173 +7200,173 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198">
+        <v>1112599</v>
+      </c>
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>26334346</v>
-      </c>
-      <c r="E34" s="198" t="str">
+        <v>1122921</v>
+      </c>
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v/>
-      </c>
-      <c r="F34" s="198" t="str">
+        <v>1082193</v>
+      </c>
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v/>
-      </c>
-      <c r="G34" s="198" t="str">
+        <v>1083634</v>
+      </c>
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="198">
+        <v>115327</v>
+      </c>
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>1389487</v>
-      </c>
-      <c r="E35" s="198" t="str">
+        <v>123406</v>
+      </c>
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F35" s="198" t="str">
+        <v>124059</v>
+      </c>
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G35" s="198" t="str">
+        <v>137491</v>
+      </c>
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>19968596</v>
-      </c>
-      <c r="E36" s="198" t="str">
+        <v/>
+      </c>
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="65">
+        <v>769727</v>
+      </c>
+      <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
-        <v>13747980</v>
+        <v/>
       </c>
       <c r="E37" s="65" t="str">
         <f t="shared" si="32"/>
@@ -7368,63 +7404,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.18851575515301744</v>
+      </c>
+      <c r="D38" s="153" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154">
-        <f>IF(D6="","",D14/MAX(D37,0))</f>
-        <v>8.4524174945458663E-3</v>
-      </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7437,372 +7473,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.63278833457850758</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.63236904234393276</v>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.23302179035717122</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.24287331987592931</v>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>6.8125803655401775E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>5.7545641465684789E-3</v>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>4.205580759621513E-4</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>4.5326912541722252E-4</v>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.12695673662281889</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.1185498045081522</v>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7814,216 +7850,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269">
+        <v>0.53329132737506013</v>
+      </c>
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
-        <v>2.5764389598754038E-2</v>
-      </c>
-      <c r="E48" s="269" t="e">
+        <v>0.49553063129048674</v>
+      </c>
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="269" t="str">
+        <v>0.50311727206404044</v>
+      </c>
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="152">
+        <v>0.15250837257535318</v>
+      </c>
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
-        <v>0.49636290171258463</v>
-      </c>
-      <c r="E49" s="152" t="str">
+        <v/>
+      </c>
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
-        <v>2.5993931070684839</v>
-      </c>
-      <c r="E50" s="152" t="str">
+        <v/>
+      </c>
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8039,350 +8075,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155">
+        <v>0.56508137615599019</v>
+      </c>
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
-        <v>0.73983962665722636</v>
-      </c>
-      <c r="E53" s="155" t="str">
+        <v>0.57015967653977884</v>
+      </c>
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F53" s="155" t="str">
+        <v>0.56508643492712995</v>
+      </c>
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G53" s="155" t="str">
+        <v>0.55977572123832542</v>
+      </c>
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="156">
+        <v>0.80314954482284784</v>
+      </c>
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
-        <v>6.7394804405410541E-2</v>
-      </c>
-      <c r="E54" s="156" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>5.7940195782986134E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>5.3660644931193838E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>4.8541321265297921E-2</v>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
-        <v>Error</v>
-      </c>
-      <c r="E57" s="270" t="str">
+        <v/>
+      </c>
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271">
+        <v>0.14550259775333776</v>
+      </c>
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
-        <v>4.6584214673920056E-3</v>
-      </c>
-      <c r="E58" s="271" t="e">
+        <v>0.11626005279227092</v>
+      </c>
+      <c r="E58" s="269">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="271" t="str">
+        <v>0.11067275906432016</v>
+      </c>
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271">
+        <v>0.13753385903411172</v>
+      </c>
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
-        <v>4.4211781941387871E-3</v>
-      </c>
-      <c r="E59" s="271" t="e">
+        <v>0.1103391811695339</v>
+      </c>
+      <c r="E59" s="269">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="271" t="str">
+        <v>0.10554925859361355</v>
+      </c>
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9661,7 +9697,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9679,7 +9715,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9697,71 +9733,71 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>1112599</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>997272</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>115327</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="63" t="e">
+      <c r="I5" s="63">
         <f>C28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.7861245483467654</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -9770,25 +9806,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>21587.082022804127</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>0.980597607922707</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="63" t="e">
+        <v>25</v>
+      </c>
+      <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="87"/>
+        <v>1.7861245483467654</v>
+      </c>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9796,297 +9832,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>1.2082608488787661</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="63" t="e">
+        <v>26</v>
+      </c>
+      <c r="I7" s="63">
         <f>C24/I28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="87"/>
+        <v>1.1622796299942824</v>
+      </c>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
-        <v>45565</v>
-      </c>
-      <c r="E9" s="118" t="str">
+        <v>45382</v>
+      </c>
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
-        <v>Quarter</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+        <v>FY</v>
+      </c>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="197">
+        <v>248125</v>
+      </c>
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+        <v>223312.5</v>
+      </c>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="87"/>
+        <v>12749</v>
+      </c>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="197">
+        <v>38299</v>
+      </c>
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+        <v>30639.200000000001</v>
+      </c>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="197">
+        <v>143536</v>
+      </c>
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+        <v>86121.599999999991</v>
+      </c>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="197">
+        <v>59949</v>
+      </c>
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+        <v>35969.4</v>
+      </c>
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="87"/>
+        <v>16252</v>
+      </c>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="197">
+        <v>262955</v>
+      </c>
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+        <v>131477.5</v>
+      </c>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="87"/>
+        <v>29001</v>
+      </c>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10097,21 +10133,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10124,114 +10160,114 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>0</v>
+        <v>392506</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
-        <v>0</v>
+        <v>489909</v>
       </c>
       <c r="D24" s="62">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="88">
+        <v>0.76757663157851763</v>
+      </c>
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="113" t="e">
+        <v>376042.7</v>
+      </c>
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="87"/>
+        <v>0.74094134578288706</v>
+      </c>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>262955</v>
       </c>
       <c r="D25" s="62">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="113" t="e">
+        <v>131477.5</v>
+      </c>
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="87"/>
+        <v>0.25905865421711294</v>
+      </c>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="63" t="e">
+        <v>51</v>
+      </c>
+      <c r="I25" s="63">
         <f>E28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.2040611425195786</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10241,30 +10277,30 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="63" t="e">
+        <v>53</v>
+      </c>
+      <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="8" t="e">
+        <v>12.966542533016103</v>
+      </c>
+      <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10274,25 +10310,25 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="87"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="63" t="e">
+        <v>55</v>
+      </c>
+      <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="8" t="e">
+        <v>1.2040611425195786</v>
+      </c>
+      <c r="J27" s="8" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10301,196 +10337,196 @@
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="57" t="e">
+        <v>752864</v>
+      </c>
+      <c r="D28" s="57">
         <f>E28/C28</f>
-        <v>#DIV/0!</v>
+        <v>0.67411936285969309</v>
       </c>
       <c r="E28" s="70">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+        <v>507520.2</v>
+      </c>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="32" t="e">
+        <v>421507</v>
+      </c>
+      <c r="J28" s="32">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="87"/>
+        <v>55686</v>
+      </c>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="197">
+        <v>424073</v>
+      </c>
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+        <v>254443.8</v>
+      </c>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="87"/>
+        <v>86089</v>
+      </c>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="197">
+        <v>116102</v>
+      </c>
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+        <v>46440.800000000003</v>
+      </c>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="87"/>
+        <v>141775</v>
+      </c>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10498,25 +10534,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10524,26 +10560,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10551,250 +10587,250 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="197">
+        <v>185161</v>
+      </c>
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+        <v>18516.100000000002</v>
+      </c>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="197">
+        <v>26950</v>
+      </c>
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+        <v>1347.5</v>
+      </c>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="197">
+        <v>259679</v>
+      </c>
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>88948</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
-        <v>0</v>
+        <v>424073</v>
       </c>
       <c r="D44" s="62">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
-        <v>0</v>
+        <v>254443.8</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>116102</v>
       </c>
       <c r="D45" s="62">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="88">
+        <v>0.4</v>
+      </c>
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
-        <v>0</v>
+        <v>46440.800000000003</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
-        <v>0</v>
+        <v>185161</v>
       </c>
       <c r="D46" s="62">
         <f>IF(E46=0,0,E46/C46)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+        <v>18516.100000000002</v>
+      </c>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="63" t="e">
+        <v>76</v>
+      </c>
+      <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="8" t="e">
+        <v>3.6918917178057806</v>
+      </c>
+      <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
-        <v>0</v>
+        <v>286629</v>
       </c>
       <c r="D47" s="62">
         <f>IF(E47=0,0,E47/C47)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="88">
+        <v>4.7011991110459863E-3</v>
+      </c>
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+        <v>1347.5</v>
+      </c>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="63" t="e">
+        <v>78</v>
+      </c>
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>1.2394474341873267</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="82" t="e">
+        <v>1011965</v>
+      </c>
+      <c r="D48" s="81">
         <f>E48/C48</f>
-        <v>#DIV/0!</v>
+        <v>0.31695582357097324</v>
       </c>
       <c r="E48" s="76">
         <f>SUM(E30:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+        <v>320748.19999999995</v>
+      </c>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>230723</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10803,109 +10839,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>1764829</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0.46931935048664764</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+        <v>828268.39999999991</v>
+      </c>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="87"/>
+        <v>652230</v>
+      </c>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+        <v>P/B Approach</v>
+      </c>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>115327</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.3392468197143408</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>154451.31797719578</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="294"/>
+        <v>170776</v>
+      </c>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10913,155 +10949,155 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>0</v>
+        <v>746977</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="2">IF(E61=0,0,E61/C61)</f>
-        <v>0</v>
+        <v>0.56479744356251926</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+        <v>421890.69999999995</v>
+      </c>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="107">
+        <v>248125</v>
+      </c>
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="117">
+        <v>0.9</v>
+      </c>
+      <c r="E62" s="116">
         <f>E11+E30</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+        <v>223312.5</v>
+      </c>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
-        <v>0</v>
+        <v>995102</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.64837896014679897</v>
       </c>
       <c r="E63" s="61">
         <f>E61+E62</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+        <v>645203.19999999995</v>
+      </c>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+        <v>170776</v>
+      </c>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
-        <v>0</v>
+        <v>824326</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.57553346612869172</v>
       </c>
       <c r="E65" s="61">
         <f>E63-E64</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+        <v>474427.19999999995</v>
+      </c>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11069,100 +11105,100 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>769727</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.23783133500578771</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+        <v>183065.19999999995</v>
+      </c>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+        <v>481454</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>288273</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.0350910421718302</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+        <v>-298388.80000000005</v>
+      </c>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11170,68 +11206,68 @@
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000CNY)</v>
-      </c>
-      <c r="C73" s="284" t="s">
+        <v>(Numbers in 1000000CNY)</v>
+      </c>
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>941168</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>941168</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>941168</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>586323</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>586323</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.62297379426414834</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>586323</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.62297379426414834</v>
       </c>
@@ -11239,50 +11275,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>354845</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>354845</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>354845</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>209382</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>209382</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.22247037723339511</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>209382</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.22247037723339511</v>
       </c>
@@ -11290,60 +11326,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>3.796700836974199E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>357.33333333333331</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>3.796700836974199E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.15417615841875909</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>145105.66666666666</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.15417615841875909</v>
       </c>
@@ -11351,61 +11387,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>7947</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>7947.0000000000009</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>7947.0000000000009</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>8.4437634938714454E-3</v>
       </c>
@@ -11413,59 +11449,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.14573239492488765</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>137158.66666666666</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.14573239492488765</v>
       </c>
@@ -11473,184 +11509,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>102869</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>102869</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.10929929619366574</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>102869</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.10929929619366574</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
-        <v>5.3807399911493308E-3</v>
-      </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+        <v>5.3913010652667737</v>
+      </c>
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>5.3807399911493308E-3</v>
-      </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+        <v>5.3913010652667737</v>
+      </c>
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>5.3807399911493308E-3</v>
-      </c>
-      <c r="I86" s="206"/>
+        <v>5.3913010652667737</v>
+      </c>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9374851134189892E-5</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>6.9037527469940616E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9374851134189892E-5</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>6.9037527469940616E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9374851134189892E-5</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>6.9037527469940616E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.9</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
-        <v>167.26323916048565</v>
-      </c>
-      <c r="E88" s="169">
+        <v>0.16693558551167018</v>
+      </c>
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.9</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
-        <v>167.26323916048565</v>
-      </c>
-      <c r="H88" s="169">
+        <v>0.16693558551167018</v>
+      </c>
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.9</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
-        <v>167.26323916048565</v>
+        <v>0.16693558551167018</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1603862316981094E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>1.1524820070472551E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1603862316981094E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>1.1524820070472551E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1603862316981094E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>1.1524820070472551E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11658,55 +11694,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6787930935871532E-2</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>142.9201645634426</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6787930935871532E-2</v>
+        <v>142.9201645634426</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
-        <v>0.02</v>
-      </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+        <v>0.03</v>
+      </c>
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.373104925716721</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>18.095075347119149</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>15.373104925716721</v>
+        <v>18.095075347119149</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11716,123 +11752,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>824921.54113306722</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>1355798.7811282848</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3148940165990066E-2</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>71.056580825946725</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3148940165990066E-2</v>
-      </c>
-      <c r="I97" s="122">
+        <v>71.056580825946725</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7386585819726346E-2</v>
+        <v>94.502774759657868</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-164948.8581716659</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-8.644868276890417</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>188003.14205576567</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>8.3751597569038037</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>9.8531291257691809</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>824921.54113306722</v>
-      </c>
-      <c r="D100" s="109">
+        <v>1378853.0650123847</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6676599141091552E-2</v>
-      </c>
-      <c r="E100" s="109">
+        <v>60.796978441833886</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.3148940165990066E-2</v>
-      </c>
-      <c r="F100" s="109">
+        <v>70.786872305960102</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.3148940165990066E-2</v>
-      </c>
-      <c r="H100" s="109">
+        <v>71.525856990392811</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3148940165990066E-2</v>
-      </c>
-      <c r="I100" s="109">
+        <v>72.264841674825519</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7386585819726346E-2</v>
+        <v>95.711035608536633</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11842,58 +11878,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>146121762.21476176</v>
-      </c>
-      <c r="D103" s="109">
+        <v>171657.24077485394</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.4966776006110134</v>
-      </c>
-      <c r="E103" s="122">
+        <v>7.646982913148678</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6431501183658987</v>
-      </c>
-      <c r="F103" s="109">
+        <v>8.9964504860572685</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>7.6431501183658987</v>
-      </c>
-      <c r="H103" s="122">
+        <v>8.9964504860572685</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.6431501183658987</v>
-      </c>
-      <c r="I103" s="109">
+        <v>8.9964504860572685</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.165123141225411</v>
+        <v>11.964965440749618</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11903,58 +11939,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73473341.877947405</v>
-      </c>
-      <c r="D106" s="109">
+        <v>761154.91723943665</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.2666770998760524</v>
-      </c>
-      <c r="E106" s="122">
+        <v>34.221980677491281</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.8431495292659443</v>
-      </c>
-      <c r="F106" s="109">
+        <v>39.891661396008686</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.8431495292659443</v>
-      </c>
-      <c r="H106" s="122">
+        <v>40.26115373822504</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.8431495292659443</v>
-      </c>
-      <c r="I106" s="122">
+        <v>40.630646080441394</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>5.1112548635225687</v>
+        <v>53.838000524643128</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11963,15 +11999,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521CE452-A41C-4450-85E1-484E9A1B002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F68333D-FCF4-4352-AB37-6DAEE7EED962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2949,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3440,11 +3457,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1524820070472551E-2</v>
+        <v>1.1436096685273308E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1524820070472551E-2</v>
+        <v>1.1436096685273308E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3904,11 +3921,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3922,10 +3939,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4147,8 +4164,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4161,8 +4181,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4205,60 +4225,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>83.4</v>
+        <v>84</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>19080551940</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1591318.031796</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1602766.3629600001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4281,11 +4301,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4305,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4426,7 +4446,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.14550259775333776</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4438,20 +4458,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.56508137615599019</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.15417615841875909</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.53329132737506013</v>
       </c>
@@ -4460,26 +4480,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.15417615841875909</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.7696566232682758</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3392468197143408</v>
+        <v>1.3496369479838393</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>8.4437634938714454E-3</v>
       </c>
@@ -4488,7 +4508,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.484875641518395</v>
+        <v>14.597252026265171</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4520,7 +4540,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1524820070472551E-2</v>
+        <v>1.1436096685273308E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4539,10 +4559,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4550,22 +4570,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>60.796978441833886</v>
+        <v>60.556075566008431</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>110.06769094981712</v>
+        <v>109.65927849621877</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>71.525856990392811</v>
-      </c>
-      <c r="G29" s="285">
+        <v>71.242441842362865</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>95.711035608536633</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>95.355894344538072</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5596,7 +5616,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -5626,10 +5646,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B55" sqref="B55"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7837,7 +7857,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9714,8 +9734,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9764,7 +9784,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>997272</v>
       </c>
@@ -9809,11 +9829,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>21587.082022804127</v>
+        <v>20388.819699867687</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.980597607922707</v>
+        <v>0.98167460181083421</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -9835,7 +9855,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.2082608488787661</v>
+        <v>1.140553724606804</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10811,7 +10831,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>1011965</v>
       </c>
@@ -10828,7 +10848,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>230723</v>
       </c>
@@ -10901,11 +10921,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3392468197143408</v>
+        <v>1.3496369479838393</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>154451.31797719578</v>
+        <v>155649.58030013222</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10937,11 +10957,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>170776</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10952,11 +10972,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10968,11 +10988,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11186,19 +11206,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11208,18 +11228,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11586,17 +11606,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9037527469940616E-2</v>
+        <v>6.8506044713119774E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9037527469940616E-2</v>
+        <v>6.8506044713119774E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9037527469940616E-2</v>
+        <v>6.8506044713119774E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11637,17 +11657,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1524820070472551E-2</v>
+        <v>1.1436096685273308E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1524820070472551E-2</v>
+        <v>1.1436096685273308E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1524820070472551E-2</v>
+        <v>1.1436096685273308E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11678,15 +11698,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11707,14 +11727,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>142.9201645634426</v>
+        <v>142.48546690874036</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>142.9201645634426</v>
+        <v>142.48546690874036</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11735,14 +11755,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.095075347119149</v>
+        <v>18.07701932246777</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.095075347119149</v>
+        <v>18.07701932246777</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11785,21 +11805,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1355798.7811282848</v>
+        <v>1351675.062461959</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>71.056580825946725</v>
+        <v>70.840459265140055</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>71.056580825946725</v>
+        <v>70.840459265140055</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>94.502774759657868</v>
+        <v>94.215340619931268</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11809,14 +11829,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-164948.8581716659</v>
+        <v>-166135.54060455554</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.644868276890417</v>
+        <v>-8.7070615738464614</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11827,17 +11847,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>188003.14205576567</v>
+        <v>187897.9351872761</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>8.3751597569038037</v>
+        <v>8.370473003685273</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.8531291257691809</v>
+        <v>9.8476152984532632</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11848,27 +11868,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1378853.0650123847</v>
+        <v>1373437.4570446797</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>60.796978441833886</v>
+        <v>60.556075566008431</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>70.786872305960102</v>
+        <v>70.503870694978872</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>71.525856990392811</v>
+        <v>71.242441842362865</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>72.264841674825519</v>
+        <v>71.981012989746858</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>95.711035608536633</v>
+        <v>95.355894344538072</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11909,27 +11929,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>171657.24077485394</v>
+        <v>171485.95398485381</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.646982913148678</v>
+        <v>7.6393524330683347</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.9964504860572685</v>
+        <v>8.9874734506686291</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>8.9964504860572685</v>
+        <v>8.9874734506686291</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.9964504860572685</v>
+        <v>8.9874734506686291</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.964965440749618</v>
+        <v>11.953026296711432</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11970,27 +11990,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>761154.91723943665</v>
+        <v>758369.36037572112</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>34.221980677491281</v>
+        <v>34.097713999538385</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>39.891661396008686</v>
+        <v>39.745672072823751</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>40.26115373822504</v>
+        <v>40.114957646515748</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>40.630646080441394</v>
+        <v>40.484243220207745</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>53.838000524643128</v>
+        <v>53.65446032062475</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F68333D-FCF4-4352-AB37-6DAEE7EED962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{764CAEF7-4807-4032-97C8-B3F953AFCA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2826,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3457,11 +3457,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1436096685273308E-2</v>
+        <v>1.1973835555801679E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1436096685273308E-2</v>
+        <v>1.1973835555801679E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>84</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1602766.3629600001</v>
+        <v>1528352.2103939999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4325,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3496369479838393</v>
+        <v>1.2890254384428936</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.597252026265171</v>
+        <v>13.941696855088754</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1436096685273308E-2</v>
+        <v>1.1973835555801679E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4570,20 +4570,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>60.556075566008431</v>
+        <v>61.703288553226223</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>109.65927849621877</v>
+        <v>111.57428052595195</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>71.242441842362865</v>
+        <v>72.592104180266148</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>95.355894344538072</v>
+        <v>97.021113500827795</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -5646,10 +5646,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9734,8 +9734,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9829,11 +9829,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>20388.819699867687</v>
+        <v>27378.963260696299</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.98167460181083421</v>
+        <v>0.97539188579111047</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -9855,7 +9855,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.140553724606804</v>
+        <v>1.5291474391018207</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10921,11 +10921,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3496369479838393</v>
+        <v>1.2890254384428939</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>155649.58030013222</v>
+        <v>148659.43673930361</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11606,17 +11606,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8506044713119774E-2</v>
+        <v>7.1727280430358628E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8506044713119774E-2</v>
+        <v>7.1727280430358628E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8506044713119774E-2</v>
+        <v>7.1727280430358628E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11657,17 +11657,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1436096685273308E-2</v>
+        <v>1.1973835555801679E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1436096685273308E-2</v>
+        <v>1.1973835555801679E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1436096685273308E-2</v>
+        <v>1.1973835555801679E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11727,14 +11727,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>142.48546690874036</v>
+        <v>144.41615644342551</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>142.48546690874036</v>
+        <v>144.41615644342551</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11755,14 +11755,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.07701932246777</v>
+        <v>18.096296311248064</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.07701932246777</v>
+        <v>18.096296311248064</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11805,21 +11805,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1351675.062461959</v>
+        <v>1369990.3682542446</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>70.840459265140055</v>
+        <v>71.80035318486938</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>70.840459265140055</v>
+        <v>71.80035318486938</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>94.215340619931268</v>
+        <v>95.491966061725989</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11829,14 +11829,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-166135.54060455554</v>
+        <v>-158422.10479077263</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.7070615738464614</v>
+        <v>-8.3028051436321633</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11846,18 +11846,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>187897.9351872761</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>187599.08192647289</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>8.370473003685273</v>
+        <v>8.3571596953238849</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.8476152984532632</v>
+        <v>9.8319525827339831</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11868,27 +11868,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>1373437.4570446797</v>
+        <v>1399167.345389945</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>60.556075566008431</v>
+        <v>61.703288553226223</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>70.503870694978872</v>
+        <v>71.854707736561096</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>71.242441842362865</v>
+        <v>72.592104180266148</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>71.981012989746858</v>
+        <v>73.329500623971214</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>95.355894344538072</v>
+        <v>97.021113500827795</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11929,27 +11929,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>171485.95398485381</v>
+        <v>171668.82333692868</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.6393524330683347</v>
+        <v>7.6474988928642791</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.9874734506686291</v>
+        <v>8.9970575210167993</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>8.9874734506686291</v>
+        <v>8.9970575210167993</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.9874734506686291</v>
+        <v>8.9970575210167993</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.953026296711432</v>
+        <v>11.96577277607852</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11990,27 +11990,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>758369.36037572112</v>
+        <v>771348.15321895131</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>34.097713999538385</v>
+        <v>34.675393723045254</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>39.745672072823751</v>
+        <v>40.425882628788948</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>40.114957646515748</v>
+        <v>40.794580850641474</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>40.484243220207745</v>
+        <v>41.163279072494007</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>53.65446032062475</v>
+        <v>54.493443138453159</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298A5284-9DAF-4CB2-8126-5A676C905D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D11B09F-DD3F-4F4B-8CF3-B992240BC1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3670,11 +3670,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1634419349679681E-2</v>
+        <v>1.1577420828564423E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1634419349679681E-2</v>
+        <v>1.1577420828564423E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>82.3</v>
+        <v>82.7</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>1570329.424662</v>
+        <v>1577961.6454380001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4538,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4669,7 +4669,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3266307637076287</v>
+        <v>1.3331620967840578</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.348424317047352</v>
+        <v>14.419065177262789</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1634419349679681E-2</v>
+        <v>1.1577420828564423E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4788,20 +4788,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>68.293243350077489</v>
+        <v>57.503808433783583</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>110.00703459600898</v>
+        <v>104.69772054817253</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>80.344992176561746</v>
+        <v>67.651539333863042</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>95.658290953051292</v>
+        <v>91.041496128845679</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10034,11 +10034,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>23042.05391389021</v>
+        <v>22288.814864184882</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.97928988439330777</v>
+        <v>0.97996689295587636</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10060,7 +10060,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.2847904338259484</v>
+        <v>1.2427130628342313</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11126,11 +11126,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3266307637076287</v>
+        <v>1.3331620967840576</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>152996.3460861097</v>
+        <v>153749.58513581502</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.8156376662969453</v>
+        <v>9.8150224932759276</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>10.358332098933548</v>
+        <v>10.736024315736632</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>6.8107714959701173</v>
+        <v>5.3377015193809951</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11838,17 +11838,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9694063815209373E-2</v>
+        <v>6.9352623606756786E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9694063815209373E-2</v>
+        <v>6.9352623606756786E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9694063815209373E-2</v>
+        <v>6.9352623606756786E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11889,17 +11889,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1634419349679681E-2</v>
+        <v>1.1577420828564423E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1634419349679681E-2</v>
+        <v>1.1577420828564423E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1634419349679681E-2</v>
+        <v>1.1577420828564423E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11952,21 +11952,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>124.81071016227909</v>
+        <v>142.57736175526063</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>124.81071016227909</v>
+        <v>142.57736175526063</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11987,14 +11987,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.623526393394865</v>
+        <v>18.029780418149468</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>17.623526393394865</v>
+        <v>18.029780418149468</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12037,21 +12037,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1565846.790774819</v>
+        <v>1352546.8143332552</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>82.065067913062634</v>
+        <v>70.886147244923734</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>82.065067913062634</v>
+        <v>70.886147244923734</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>97.37836668955218</v>
+        <v>94.276104039906372</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12061,14 +12061,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-162773.27371136812</v>
+        <v>-163564.39533329458</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.5308472324709985</v>
+        <v>-8.5723094304416954</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12079,17 +12079,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>187287.78431599928</v>
+        <v>187276.04647521963</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>6.8107714959701173</v>
+        <v>5.3377015193809951</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>6.8107714959701173</v>
+        <v>5.3377015193809951</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12101,23 +12101,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>68.293243350077489</v>
+        <v>57.503808433783583</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>80.344992176561746</v>
+        <v>67.651539333863042</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>80.344992176561746</v>
+        <v>67.651539333863042</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>80.344992176561746</v>
+        <v>67.651539333863042</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>95.658290953051292</v>
+        <v>91.041496128845679</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12156,23 +12156,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.8495914748980944</v>
+        <v>7.6193892614744989</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.5877546763507</v>
+        <v>8.9639873664405876</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>11.5877546763507</v>
+        <v>8.9639873664405876</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.5877546763507</v>
+        <v>8.9639873664405876</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.750023641942786</v>
+        <v>11.921790623646531</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12211,23 +12211,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>39.07141741248779</v>
+        <v>32.561598847629043</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>45.966373426456222</v>
+        <v>38.307763350151816</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>45.966373426456222</v>
+        <v>38.307763350151816</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>45.966373426456222</v>
+        <v>38.307763350151816</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>54.704157297497041</v>
+        <v>51.481643376246105</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D11B09F-DD3F-4F4B-8CF3-B992240BC1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{334A5A2C-7AF1-4575-8CC1-87483BCE65B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3670,11 +3671,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1577420828564423E-2</v>
+        <v>1.1619571632551916E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1577420828564423E-2</v>
+        <v>1.1619571632551916E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4353,7 +4354,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4376,6 +4377,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4394,8 +4398,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4431,24 +4435,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>82.7</v>
+        <v>82.4</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4458,7 +4465,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
@@ -4487,11 +4494,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>1577961.6454380001</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>1572237.479856</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4514,11 +4521,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4586,10 +4593,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4636,7 +4643,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4710,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3331620967840578</v>
+        <v>1.3283259585853249</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.419065177262789</v>
+        <v>14.366759015797507</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4765,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1577420828564423E-2</v>
+        <v>1.1619571632551916E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4777,10 +4784,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4788,22 +4795,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>57.503808433783583</v>
+        <v>64.470028818652793</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>104.69772054817253</v>
+        <v>120.4721525338381</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>67.651539333863042</v>
-      </c>
-      <c r="G29" s="312">
+        <v>75.847092727826819</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>91.041496128845679</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>104.75839350768531</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5785,15 +5792,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5821,7 +5829,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10034,11 +10042,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>22288.814864184882</v>
+        <v>22846.552174230135</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.97996689295587636</v>
+        <v>0.97946560065735266</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10060,7 +10068,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.2427130628342313</v>
+        <v>1.2738097113122531</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11126,11 +11134,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3331620967840576</v>
+        <v>1.3283259585853249</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>153749.58513581502</v>
+        <v>153191.84782576977</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11838,17 +11846,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9352623606756786E-2</v>
+        <v>6.9605121022800795E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9352623606756786E-2</v>
+        <v>6.9605121022800795E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9352623606756786E-2</v>
+        <v>6.9605121022800795E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11889,17 +11897,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1577420828564423E-2</v>
+        <v>1.1619571632551916E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1577420828564423E-2</v>
+        <v>1.1619571632551916E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1577420828564423E-2</v>
+        <v>1.1619571632551916E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11948,7 +11956,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11959,14 +11967,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>142.57736175526063</v>
+        <v>158.99900051232629</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>142.57736175526063</v>
+        <v>158.99900051232629</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11987,14 +11995,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.029780418149468</v>
+        <v>20.08686062110726</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>18.029780418149468</v>
+        <v>20.08686062110726</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12037,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1352546.8143332552</v>
+        <v>1508329.1553273797</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>70.886147244923734</v>
+        <v>79.050603990409499</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>70.886147244923734</v>
+        <v>79.050603990409499</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>94.276104039906372</v>
+        <v>107.96190477026799</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12061,14 +12069,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-163564.39533329458</v>
+        <v>-162971.05411684979</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.5723094304416954</v>
+        <v>-8.5412127819636741</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12101,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>57.503808433783583</v>
+        <v>64.470028818652793</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>67.651539333863042</v>
+        <v>75.847092727826819</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>67.651539333863042</v>
+        <v>75.847092727826819</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>67.651539333863042</v>
+        <v>75.847092727826819</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>91.041496128845679</v>
+        <v>104.75839350768531</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12156,23 +12164,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.6193892614744989</v>
+        <v>8.4887118180948029</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>8.9639873664405876</v>
+        <v>9.9867197859938859</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>8.9639873664405876</v>
+        <v>9.9867197859938859</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>8.9639873664405876</v>
+        <v>9.9867197859938859</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>11.921790623646531</v>
+        <v>13.639178400630939</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12211,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>32.561598847629043</v>
+        <v>36.479370318373796</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>38.307763350151816</v>
+        <v>42.916906256910352</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>38.307763350151816</v>
+        <v>42.916906256910352</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>38.307763350151816</v>
+        <v>42.916906256910352</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>51.481643376246105</v>
+        <v>59.198785954158126</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334A5A2C-7AF1-4575-8CC1-87483BCE65B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2777AB41-2787-4993-8E06-F09D8043482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3671,11 +3671,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1619571632551916E-2</v>
+        <v>1.1626626624435676E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1619571632551916E-2</v>
+        <v>1.1626626624435676E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4435,27 +4435,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>82.4</v>
+        <v>82.35</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4465,40 +4465,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>19080551940</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1572237.479856</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1571283.4522589999</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4521,11 +4521,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3283259585853249</v>
+        <v>1.3275199355522025</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.366759015797507</v>
+        <v>14.358041322219957</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1619571632551916E-2</v>
+        <v>1.1626626624435676E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4784,10 +4784,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4795,22 +4795,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>64.470028818652793</v>
+        <v>70.124087775919563</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>120.4721525338381</v>
+        <v>122.55783249296177</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>75.847092727826819</v>
-      </c>
-      <c r="G29" s="313">
+        <v>82.49892679519948</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>104.75839350768531</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>106.57202825474937</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5793,15 +5793,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10042,11 +10042,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>22846.552174230135</v>
+        <v>22939.508392571064</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.97946560065735266</v>
+        <v>0.97938205194093197</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10068,7 +10068,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.2738097113122531</v>
+        <v>1.2789924860585931</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11134,11 +11134,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3283259585853249</v>
+        <v>1.3275199355522023</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>153191.84782576977</v>
+        <v>153098.89160742884</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11174,7 +11174,7 @@
         <f>I15+I34</f>
         <v>170776</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11185,11 +11185,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11201,11 +11201,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>10.736024315736632</v>
+        <v>10.545156974498214</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>5.3377015193809951</v>
+        <v>6.0292277254573658</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9605121022800795E-2</v>
+        <v>6.9647382784198991E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9605121022800795E-2</v>
+        <v>6.9647382784198991E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9605121022800795E-2</v>
+        <v>6.9647382784198991E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11897,17 +11897,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1619571632551916E-2</v>
+        <v>1.1626626624435676E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1619571632551916E-2</v>
+        <v>1.1626626624435676E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1619571632551916E-2</v>
+        <v>1.1626626624435676E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11960,21 +11960,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>158.99900051232629</v>
+        <v>148.67555144140877</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>158.99900051232629</v>
+        <v>148.67555144140877</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11995,14 +11995,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.08686062110726</v>
+        <v>19.856694680392351</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.08686062110726</v>
+        <v>19.856694680392351</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12045,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1508329.1553273797</v>
+        <v>1621956.2288504932</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>79.050603990409499</v>
+        <v>85.005729076959454</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>79.050603990409499</v>
+        <v>85.005729076959454</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>107.96190477026799</v>
+        <v>109.07883053650934</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12069,14 +12069,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-162971.05411684979</v>
+        <v>-162872.16391410891</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.5412127819636741</v>
+        <v>-8.5360300072173345</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12092,12 +12092,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>5.3377015193809951</v>
+        <v>6.0292277254573658</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>5.3377015193809951</v>
+        <v>6.0292277254573658</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12109,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>64.470028818652793</v>
+        <v>70.124087775919563</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>75.847092727826819</v>
+        <v>82.49892679519948</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>75.847092727826819</v>
+        <v>82.49892679519948</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>75.847092727826819</v>
+        <v>82.49892679519948</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>104.75839350768531</v>
+        <v>106.57202825474937</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12164,23 +12164,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>8.4887118180948029</v>
+        <v>9.6501601857246104</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>9.9867197859938859</v>
+        <v>11.353129630264247</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>9.9867197859938859</v>
+        <v>11.353129630264247</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>9.9867197859938859</v>
+        <v>11.353129630264247</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>13.639178400630939</v>
+        <v>14.568266356229367</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12219,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>36.479370318373796</v>
+        <v>39.887123980822089</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>42.916906256910352</v>
+        <v>46.926028212731865</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>42.916906256910352</v>
+        <v>46.926028212731865</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>42.916906256910352</v>
+        <v>46.926028212731865</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>59.198785954158126</v>
+        <v>60.570147305489371</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F21628C-40D0-4206-A324-79B01A815AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A14E85-06DE-445B-80BE-71195A0F55BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3694,11 +3694,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1626262699537156E-2</v>
+        <v>1.1632870672396189E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1626262699537156E-2</v>
+        <v>1.1632870672396189E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4463,21 +4463,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4493,7 +4493,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
@@ -4522,11 +4522,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
         <v>1571283.4522589999</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4549,11 +4549,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4573,7 +4573,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3275614895382351</v>
+        <v>1.3268073772869589</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.358490757164459</v>
+        <v>14.350334514402718</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1626262699537156E-2</v>
+        <v>1.1632870672396189E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4812,10 +4812,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4823,22 +4823,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>70.843596878945817</v>
+        <v>70.898794732145618</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>124.04179771193927</v>
+        <v>124.13667815080916</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>83.345408092877435</v>
-      </c>
-      <c r="G29" s="313">
+        <v>83.410346743700728</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.86243279299067</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>107.94493752244276</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5821,15 +5821,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10172,11 +10172,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>22934.716096023883</v>
+        <v>23021.685599626799</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>0.97938635923992035</v>
+        <v>0.979308191361284</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10198,7 +10198,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.2786852661589427</v>
+        <v>1.2842636169860042</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11264,11 +11264,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3275614895382351</v>
+        <v>1.3268073772869589</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>153103.68390397602</v>
+        <v>153016.71440037311</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.8147152733762759</v>
+        <v>9.8202936242033374</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>10.544826900668047</v>
+        <v>10.550820222147493</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>6.0290390046736828</v>
+        <v>6.0324657056814388</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11976,17 +11976,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9645202752317809E-2</v>
+        <v>6.9684786720222422E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9645202752317809E-2</v>
+        <v>6.9684786720222422E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9645202752317809E-2</v>
+        <v>6.9684786720222422E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12027,17 +12027,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1626262699537156E-2</v>
+        <v>1.1632870672396189E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1626262699537156E-2</v>
+        <v>1.1632870672396189E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1626262699537156E-2</v>
+        <v>1.1632870672396189E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12097,14 +12097,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>150.15638259538579</v>
+        <v>150.26396738006284</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>150.15638259538579</v>
+        <v>150.26396738006284</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12125,14 +12125,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.054605019710465</v>
+        <v>20.066527668157232</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.054605019710465</v>
+        <v>20.066527668157232</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12175,21 +12175,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1638111.1601137912</v>
+        <v>1639284.8420671769</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>85.852399095421092</v>
+        <v>85.913911045236617</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>85.852399095421092</v>
+        <v>85.913911045236617</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>110.36942379553433</v>
+        <v>110.44850182397865</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12199,14 +12199,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-162872.16391410891</v>
+        <v>-162872.16391410894</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.5360300072173345</v>
+        <v>-8.5360300072173363</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12217,17 +12217,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>187270.18454996732</v>
+        <v>187376.62256266264</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>6.0290390046736828</v>
+        <v>6.0324657056814388</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>6.0290390046736828</v>
+        <v>6.0324657056814388</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12239,23 +12239,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>70.843596878945817</v>
+        <v>70.898794732145618</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>83.345408092877435</v>
+        <v>83.410346743700728</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>83.345408092877435</v>
+        <v>83.410346743700728</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>83.345408092877435</v>
+        <v>83.410346743700728</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>107.86243279299067</v>
+        <v>107.94493752244276</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12294,23 +12294,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.7463426827399271</v>
+        <v>9.752136973743605</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.466285509105797</v>
+        <v>11.4731023220513</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>11.466285509105797</v>
+        <v>11.4731023220513</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.466285509105797</v>
+        <v>11.4731023220513</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.740733375528796</v>
+        <v>14.749496878061565</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12349,23 +12349,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>40.29496978084287</v>
+        <v>40.32546585294461</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>47.405846800991618</v>
+        <v>47.441724532876016</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>47.405846800991618</v>
+        <v>47.441724532876016</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>47.405846800991618</v>
+        <v>47.441724532876016</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>61.301583084259732</v>
+        <v>61.34721720025216</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/9988.HK_Valuation.xlsx
+++ b/financial_models/opportunities/9988.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A14E85-06DE-445B-80BE-71195A0F55BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{675FC824-7734-4089-80B6-2844717CCDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3694,11 +3694,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1632870672396189E-2</v>
+        <v>1.2084770474081023E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1632870672396189E-2</v>
+        <v>1.2084770474081023E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4463,27 +4463,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>9988.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>82.35</v>
+        <v>79.05</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4493,40 +4493,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>阿里巴巴</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>19080551940</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1571283.4522589999</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1508317.6308569999</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4549,11 +4549,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4573,7 +4573,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3268073772869589</v>
+        <v>1.277192534211874</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.350334514402718</v>
+        <v>13.813715855812703</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1632870672396189E-2</v>
+        <v>1.2084770474081023E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4812,10 +4812,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4823,22 +4823,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>70.898794732145618</v>
+        <v>71.712039583229711</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>124.13667815080916</v>
+        <v>125.44433421191363</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>83.410346743700728</v>
-      </c>
-      <c r="G29" s="314">
+        <v>84.367105392034958</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>107.94493752244276</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>109.08202974949012</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5821,15 +5821,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10172,11 +10172,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>23021.685599626799</v>
+        <v>28743.616606947122</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>0.979308191361284</v>
+        <v>0.97416534024662338</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10198,7 +10198,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.2842636169860042</v>
+        <v>1.5989992102205937</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11264,11 +11264,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.3268073772869589</v>
+        <v>1.277192534211874</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>153016.71440037311</v>
+        <v>147294.78339305278</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11304,7 +11304,7 @@
         <f>I15+I34</f>
         <v>170776</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11315,11 +11315,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11331,11 +11331,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>9.8202936242033374</v>
+        <v>9.7929660841796728</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>10.550820222147493</v>
+        <v>10.521459800459835</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>6.0324657056814388</v>
+        <v>6.0156787892895398</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11976,17 +11976,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9684786720222422E-2</v>
+        <v>7.2391817700463837E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9684786720222422E-2</v>
+        <v>7.2391817700463837E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9684786720222422E-2</v>
+        <v>7.2391817700463837E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12027,17 +12027,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1632870672396189E-2</v>
+        <v>1.2084770474081023E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1632870672396189E-2</v>
+        <v>1.2084770474081023E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1632870672396189E-2</v>
+        <v>1.2084770474081023E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12097,14 +12097,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>150.26396738006284</v>
+        <v>151.36843409946536</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>150.26396738006284</v>
+        <v>151.36843409946536</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12125,14 +12125,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.066527668157232</v>
+        <v>20.04646662743794</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>20.066527668157232</v>
+        <v>20.04646662743794</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12175,21 +12175,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1639284.8420671769</v>
+        <v>1651333.8753999975</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>85.913911045236617</v>
+        <v>86.545393476704504</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>85.913911045236617</v>
+        <v>86.545393476704504</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>110.44850182397865</v>
+        <v>111.26031783415966</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12199,14 +12199,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-162872.16391410894</v>
+        <v>-156345.41053321568</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.5360300072173363</v>
+        <v>-8.1939668739590807</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12217,17 +12217,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>187376.62256266264</v>
+        <v>186855.19801584867</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>6.0324657056814388</v>
+        <v>6.0156787892895398</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>6.0324657056814388</v>
+        <v>6.0156787892895398</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12239,23 +12239,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>70.898794732145618</v>
+        <v>71.712039583229711</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>83.410346743700728</v>
+        <v>84.367105392034958</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>83.410346743700728</v>
+        <v>84.367105392034958</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>83.410346743700728</v>
+        <v>84.367105392034958</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>107.94493752244276</v>
+        <v>109.08202974949012</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12294,23 +12294,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.752136973743605</v>
+        <v>9.7423875033735623</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>11.4731023220513</v>
+        <v>11.461632356910073</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>11.4731023220513</v>
+        <v>11.461632356910073</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>11.4731023220513</v>
+        <v>11.461632356910073</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>14.749496878061565</v>
+        <v>14.734751414254722</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12349,23 +12349,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>40.32546585294461</v>
+        <v>40.727213543301637</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>47.441724532876016</v>
+        <v>47.914368874472515</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>47.441724532876016</v>
+        <v>47.914368874472515</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>47.441724532876016</v>
+        <v>47.914368874472515</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>61.34721720025216</v>
+        <v>61.908390581872418</v>
       </c>
       <c r="K106" s="75"/>
     </row>
